--- a/sst.xlsx
+++ b/sst.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Main" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Tracking" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Main" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tracking" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>46926.20000000</t>
+          <t>47339.88000000</t>
         </is>
       </c>
       <c r="C2" s="8" t="inlineStr">
@@ -610,7 +610,7 @@
       </c>
       <c r="H2" s="8" t="inlineStr">
         <is>
-          <t>45900.00000000</t>
+          <t>45678.00000000</t>
         </is>
       </c>
       <c r="I2" s="8" t="n"/>
@@ -623,7 +623,7 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>3713.21000000</t>
+          <t>3749.65000000</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -643,15 +643,15 @@
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>4173.63000000</t>
+          <t>4150.00000000</t>
         </is>
       </c>
       <c r="G3" s="12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H3" s="8" t="inlineStr">
         <is>
-          <t>3585.00000000</t>
+          <t>3622.29000000</t>
         </is>
       </c>
       <c r="I3" s="8" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>511.00000000</t>
+          <t>523.70000000</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -688,15 +688,15 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>574.80000000</t>
+          <t>572.00000000</t>
         </is>
       </c>
       <c r="G4" s="12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H4" s="8" t="inlineStr">
         <is>
-          <t>507.00000000</t>
+          <t>506.00000000</t>
         </is>
       </c>
       <c r="I4" s="8" t="n"/>
@@ -709,7 +709,7 @@
       </c>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>5.90330000</t>
+          <t>5.89270000</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -733,11 +733,11 @@
         </is>
       </c>
       <c r="G5" s="8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="8" t="inlineStr">
         <is>
-          <t>5.56640000</t>
+          <t>5.73600000</t>
         </is>
       </c>
       <c r="I5" s="8" t="n"/>
@@ -750,7 +750,7 @@
       </c>
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>85.47000000</t>
+          <t>91.55000000</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
@@ -774,11 +774,11 @@
         </is>
       </c>
       <c r="G6" s="12" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="H6" s="8" t="inlineStr">
         <is>
-          <t>81.11000000</t>
+          <t>84.14000000</t>
         </is>
       </c>
       <c r="I6" s="8" t="n"/>
@@ -791,7 +791,7 @@
       </c>
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>26.56000000</t>
+          <t>28.23000000</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
@@ -815,11 +815,11 @@
         </is>
       </c>
       <c r="G7" s="8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H7" s="8" t="inlineStr">
         <is>
-          <t>26.17000000</t>
+          <t>26.24000000</t>
         </is>
       </c>
       <c r="I7" s="8" t="n"/>
@@ -832,7 +832,7 @@
       </c>
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>140.10000000</t>
+          <t>187.20000000</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
@@ -852,15 +852,15 @@
       </c>
       <c r="F8" s="8" t="inlineStr">
         <is>
-          <t>97.70000000</t>
+          <t>96.80000000</t>
         </is>
       </c>
       <c r="G8" s="12" t="n">
-        <v>-30</v>
+        <v>-48</v>
       </c>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>138.40000000</t>
+          <t>132.60000000</t>
         </is>
       </c>
       <c r="I8" s="8" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>2.09560000</t>
+          <t>2.57850000</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
@@ -897,15 +897,15 @@
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>2.44880000</t>
-        </is>
-      </c>
-      <c r="G9" s="11" t="n">
-        <v>16</v>
+          <t>2.59830000</t>
+        </is>
+      </c>
+      <c r="G9" s="12" t="n">
+        <v>0</v>
       </c>
       <c r="H9" s="8" t="inlineStr">
         <is>
-          <t>2.03500000</t>
+          <t>2.08050000</t>
         </is>
       </c>
       <c r="I9" s="8" t="n"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>2.52500000</t>
+          <t>2.53000000</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H10" s="8" t="inlineStr">
         <is>
-          <t>2.40600000</t>
+          <t>2.44000000</t>
         </is>
       </c>
       <c r="I10" s="8" t="n"/>
@@ -959,7 +959,7 @@
       </c>
       <c r="B11" s="8" t="inlineStr">
         <is>
-          <t>0.00003390</t>
+          <t>0.00003399</t>
         </is>
       </c>
       <c r="C11" s="8" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>0.00003291</t>
+          <t>0.00003262</t>
         </is>
       </c>
       <c r="I11" s="8" t="n"/>
@@ -1000,17 +1000,17 @@
       </c>
       <c r="B12" s="8" t="inlineStr">
         <is>
-          <t>171.02000000</t>
+          <t>178.35000000</t>
         </is>
       </c>
       <c r="C12" s="8" t="inlineStr">
         <is>
-          <t>148.04000000</t>
+          <t>149.60000000</t>
         </is>
       </c>
       <c r="D12" s="8" t="inlineStr">
         <is>
-          <t>13-12-21</t>
+          <t>14-12-21</t>
         </is>
       </c>
       <c r="E12" s="8" t="inlineStr">
@@ -1023,12 +1023,12 @@
           <t>204.75000000</t>
         </is>
       </c>
-      <c r="G12" s="8" t="n">
-        <v>19</v>
+      <c r="G12" s="12" t="n">
+        <v>14</v>
       </c>
       <c r="H12" s="8" t="inlineStr">
         <is>
-          <t>168.17000000</t>
+          <t>167.67000000</t>
         </is>
       </c>
       <c r="I12" s="8" t="n"/>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B13" s="8" t="inlineStr">
         <is>
-          <t>1.34000000</t>
+          <t>1.35500000</t>
         </is>
       </c>
       <c r="C13" s="8" t="inlineStr">
@@ -1065,11 +1065,11 @@
         </is>
       </c>
       <c r="G13" s="8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H13" s="8" t="inlineStr">
         <is>
-          <t>1.29700000</t>
+          <t>1.28100000</t>
         </is>
       </c>
       <c r="I13" s="8" t="n"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B14" s="8" t="inlineStr">
         <is>
-          <t>100.77000000</t>
+          <t>115.54000000</t>
         </is>
       </c>
       <c r="C14" s="8" t="inlineStr">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="F14" s="8" t="inlineStr">
         <is>
-          <t>89.92000000</t>
+          <t>87.46000000</t>
         </is>
       </c>
       <c r="G14" s="12" t="n">
-        <v>-10</v>
+        <v>-24</v>
       </c>
       <c r="H14" s="8" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="B15" s="8" t="inlineStr">
         <is>
-          <t>0.46619000</t>
+          <t>0.45744000</t>
         </is>
       </c>
       <c r="C15" s="8" t="inlineStr">
@@ -1147,15 +1147,15 @@
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>0.63075000</t>
+          <t>0.55359000</t>
         </is>
       </c>
       <c r="G15" s="8" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H15" s="8" t="inlineStr">
         <is>
-          <t>0.44044000</t>
+          <t>0.44410000</t>
         </is>
       </c>
       <c r="I15" s="8" t="n"/>
@@ -1168,17 +1168,17 @@
       </c>
       <c r="B16" s="8" t="inlineStr">
         <is>
-          <t>0.83150000</t>
+          <t>0.84290000</t>
         </is>
       </c>
       <c r="C16" s="8" t="inlineStr">
         <is>
-          <t>0.76010000</t>
+          <t>0.77170000</t>
         </is>
       </c>
       <c r="D16" s="8" t="inlineStr">
         <is>
-          <t>13-12-21</t>
+          <t>14-12-21</t>
         </is>
       </c>
       <c r="E16" s="8" t="inlineStr">
@@ -1192,11 +1192,11 @@
         </is>
       </c>
       <c r="G16" s="8" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8" t="inlineStr">
         <is>
-          <t>0.80200000</t>
+          <t>0.80250000</t>
         </is>
       </c>
       <c r="I16" s="8" t="n"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="B17" s="8" t="inlineStr">
         <is>
-          <t>10.02100000</t>
+          <t>9.02000000</t>
         </is>
       </c>
       <c r="C17" s="8" t="inlineStr">
@@ -1233,11 +1233,11 @@
         </is>
       </c>
       <c r="G17" s="12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H17" s="8" t="inlineStr">
         <is>
-          <t>8.70200000</t>
+          <t>8.91300000</t>
         </is>
       </c>
       <c r="I17" s="8" t="n"/>
@@ -1250,17 +1250,17 @@
       </c>
       <c r="B18" s="8" t="inlineStr">
         <is>
-          <t>15.48600000</t>
+          <t>15.05700000</t>
         </is>
       </c>
       <c r="C18" s="8" t="inlineStr">
         <is>
-          <t>10.51600000</t>
+          <t>10.69500000</t>
         </is>
       </c>
       <c r="D18" s="8" t="inlineStr">
         <is>
-          <t>12-12-21</t>
+          <t>23-12-21</t>
         </is>
       </c>
       <c r="E18" s="8" t="inlineStr">
@@ -1274,11 +1274,11 @@
         </is>
       </c>
       <c r="G18" s="12" t="n">
-        <v>-37</v>
+        <v>-35</v>
       </c>
       <c r="H18" s="8" t="inlineStr">
         <is>
-          <t>13.13500000</t>
+          <t>14.14600000</t>
         </is>
       </c>
       <c r="I18" s="8" t="n"/>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="B19" s="8" t="inlineStr">
         <is>
-          <t>35.35000000</t>
+          <t>35.63000000</t>
         </is>
       </c>
       <c r="C19" s="8" t="inlineStr">
@@ -1314,12 +1314,12 @@
           <t>41.27000000</t>
         </is>
       </c>
-      <c r="G19" s="8" t="n">
-        <v>16</v>
+      <c r="G19" s="12" t="n">
+        <v>15</v>
       </c>
       <c r="H19" s="8" t="inlineStr">
         <is>
-          <t>33.29000000</t>
+          <t>33.50000000</t>
         </is>
       </c>
       <c r="I19" s="8" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B20" s="8" t="inlineStr">
         <is>
-          <t>3.29070000</t>
+          <t>3.32280000</t>
         </is>
       </c>
       <c r="C20" s="8" t="inlineStr">
@@ -1360,11 +1360,11 @@
         </is>
       </c>
       <c r="G20" s="8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H20" s="8" t="inlineStr">
         <is>
-          <t>3.16290000</t>
+          <t>3.19010000</t>
         </is>
       </c>
       <c r="I20" s="8" t="n"/>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B21" s="8" t="inlineStr">
         <is>
-          <t>19.84000000</t>
+          <t>20.99000000</t>
         </is>
       </c>
       <c r="C21" s="8" t="inlineStr">
@@ -1401,11 +1401,11 @@
         </is>
       </c>
       <c r="G21" s="8" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="H21" s="8" t="inlineStr">
         <is>
-          <t>19.17000000</t>
+          <t>19.04000000</t>
         </is>
       </c>
       <c r="I21" s="8" t="n"/>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="B22" s="8" t="inlineStr">
         <is>
-          <t>12.03400000</t>
+          <t>12.57900000</t>
         </is>
       </c>
       <c r="C22" s="8" t="inlineStr">
@@ -1442,11 +1442,11 @@
         </is>
       </c>
       <c r="G22" s="12" t="n">
-        <v>-22</v>
+        <v>-26</v>
       </c>
       <c r="H22" s="8" t="inlineStr">
         <is>
-          <t>10.68800000</t>
+          <t>11.21100000</t>
         </is>
       </c>
       <c r="I22" s="8" t="inlineStr">
@@ -1463,17 +1463,17 @@
       </c>
       <c r="B23" s="8" t="inlineStr">
         <is>
-          <t>0.17020000</t>
+          <t>0.17240000</t>
         </is>
       </c>
       <c r="C23" s="8" t="inlineStr">
         <is>
-          <t>0.15140000</t>
+          <t>0.15490000</t>
         </is>
       </c>
       <c r="D23" s="8" t="inlineStr">
         <is>
-          <t>13-12-21</t>
+          <t>14-12-21</t>
         </is>
       </c>
       <c r="E23" s="8" t="inlineStr">
@@ -1487,11 +1487,11 @@
         </is>
       </c>
       <c r="G23" s="8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H23" s="8" t="inlineStr">
         <is>
-          <t>0.16510000</t>
+          <t>0.16610000</t>
         </is>
       </c>
       <c r="I23" s="8" t="n"/>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B24" s="8" t="inlineStr">
         <is>
-          <t>5.28200000</t>
+          <t>6.17300000</t>
         </is>
       </c>
       <c r="C24" s="8" t="inlineStr">
@@ -1524,15 +1524,15 @@
       </c>
       <c r="F24" s="8" t="inlineStr">
         <is>
-          <t>6.07600000</t>
+          <t>6.29900000</t>
         </is>
       </c>
       <c r="G24" s="12" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H24" s="8" t="inlineStr">
         <is>
-          <t>4.65500000</t>
+          <t>5.00300000</t>
         </is>
       </c>
       <c r="I24" s="8" t="n"/>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B25" s="8" t="inlineStr">
         <is>
-          <t>8.36100000</t>
+          <t>8.36800000</t>
         </is>
       </c>
       <c r="C25" s="8" t="inlineStr">
@@ -1573,7 +1573,7 @@
       </c>
       <c r="H25" s="8" t="inlineStr">
         <is>
-          <t>8.23100000</t>
+          <t>7.87700000</t>
         </is>
       </c>
       <c r="I25" s="8" t="n"/>
@@ -1586,17 +1586,17 @@
       </c>
       <c r="B26" s="8" t="inlineStr">
         <is>
-          <t>308.80000000</t>
+          <t>335.40000000</t>
         </is>
       </c>
       <c r="C26" s="8" t="inlineStr">
         <is>
-          <t>211.90000000</t>
+          <t>212.70000000</t>
         </is>
       </c>
       <c r="D26" s="8" t="inlineStr">
         <is>
-          <t>13-12-21</t>
+          <t>14-12-21</t>
         </is>
       </c>
       <c r="E26" s="8" t="inlineStr">
@@ -1610,11 +1610,11 @@
         </is>
       </c>
       <c r="G26" s="8" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="H26" s="8" t="inlineStr">
         <is>
-          <t>306.80000000</t>
+          <t>304.90000000</t>
         </is>
       </c>
       <c r="I26" s="8" t="n"/>
@@ -1627,17 +1627,17 @@
       </c>
       <c r="B27" s="8" t="inlineStr">
         <is>
-          <t>0.07669000</t>
+          <t>0.07682000</t>
         </is>
       </c>
       <c r="C27" s="8" t="inlineStr">
         <is>
-          <t>0.07488000</t>
+          <t>0.07354000</t>
         </is>
       </c>
       <c r="D27" s="8" t="inlineStr">
         <is>
-          <t>20-12-21</t>
+          <t>31-12-21</t>
         </is>
       </c>
       <c r="E27" s="8" t="inlineStr">
@@ -1647,18 +1647,22 @@
       </c>
       <c r="F27" s="8" t="inlineStr">
         <is>
-          <t>0.09235000</t>
-        </is>
-      </c>
-      <c r="G27" s="8" t="n">
-        <v>20</v>
+          <t>0.08887000</t>
+        </is>
+      </c>
+      <c r="G27" s="12" t="n">
+        <v>15</v>
       </c>
       <c r="H27" s="8" t="inlineStr">
         <is>
-          <t>0.07561000</t>
-        </is>
-      </c>
-      <c r="I27" s="8" t="n"/>
+          <t>0.07354000</t>
+        </is>
+      </c>
+      <c r="I27" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="8" t="inlineStr">
@@ -1668,17 +1672,17 @@
       </c>
       <c r="B28" s="8" t="inlineStr">
         <is>
-          <t>0.07669000</t>
+          <t>0.07682000</t>
         </is>
       </c>
       <c r="C28" s="8" t="inlineStr">
         <is>
-          <t>0.07488000</t>
+          <t>0.07354000</t>
         </is>
       </c>
       <c r="D28" s="8" t="inlineStr">
         <is>
-          <t>20-12-21</t>
+          <t>31-12-21</t>
         </is>
       </c>
       <c r="E28" s="8" t="inlineStr">
@@ -1688,18 +1692,22 @@
       </c>
       <c r="F28" s="8" t="inlineStr">
         <is>
-          <t>0.09235000</t>
-        </is>
-      </c>
-      <c r="G28" s="8" t="n">
-        <v>20</v>
+          <t>0.08887000</t>
+        </is>
+      </c>
+      <c r="G28" s="12" t="n">
+        <v>15</v>
       </c>
       <c r="H28" s="8" t="inlineStr">
         <is>
-          <t>0.07561000</t>
-        </is>
-      </c>
-      <c r="I28" s="8" t="n"/>
+          <t>0.07354000</t>
+        </is>
+      </c>
+      <c r="I28" s="8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="8" t="inlineStr">
@@ -1709,7 +1717,7 @@
       </c>
       <c r="B29" s="8" t="inlineStr">
         <is>
-          <t>31.36000000</t>
+          <t>35.30000000</t>
         </is>
       </c>
       <c r="C29" s="8" t="inlineStr">
@@ -1729,7 +1737,7 @@
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>32.70000000</t>
+          <t>37.00000000</t>
         </is>
       </c>
       <c r="G29" s="12" t="n">
@@ -1737,7 +1745,7 @@
       </c>
       <c r="H29" s="8" t="inlineStr">
         <is>
-          <t>25.10000000</t>
+          <t>30.11000000</t>
         </is>
       </c>
       <c r="I29" s="8" t="n"/>
@@ -1750,7 +1758,7 @@
       </c>
       <c r="B30" s="8" t="inlineStr">
         <is>
-          <t>1.43830000</t>
+          <t>1.39100000</t>
         </is>
       </c>
       <c r="C30" s="8" t="inlineStr">
@@ -1774,11 +1782,11 @@
         </is>
       </c>
       <c r="G30" s="12" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H30" s="8" t="inlineStr">
         <is>
-          <t>1.41200000</t>
+          <t>1.33410000</t>
         </is>
       </c>
       <c r="I30" s="8" t="n"/>
@@ -1791,7 +1799,7 @@
       </c>
       <c r="B31" s="8" t="inlineStr">
         <is>
-          <t>24.70000000</t>
+          <t>27.41000000</t>
         </is>
       </c>
       <c r="C31" s="8" t="inlineStr">
@@ -1814,12 +1822,12 @@
           <t>29.90000000</t>
         </is>
       </c>
-      <c r="G31" s="8" t="n">
-        <v>21</v>
+      <c r="G31" s="12" t="n">
+        <v>9</v>
       </c>
       <c r="H31" s="8" t="inlineStr">
         <is>
-          <t>23.26000000</t>
+          <t>24.00000000</t>
         </is>
       </c>
       <c r="I31" s="8" t="n"/>
@@ -1832,7 +1840,7 @@
       </c>
       <c r="B32" s="8" t="inlineStr">
         <is>
-          <t>147.60000000</t>
+          <t>149.70000000</t>
         </is>
       </c>
       <c r="C32" s="8" t="inlineStr">
@@ -1856,11 +1864,11 @@
         </is>
       </c>
       <c r="G32" s="12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H32" s="8" t="inlineStr">
         <is>
-          <t>142.70000000</t>
+          <t>143.70000000</t>
         </is>
       </c>
       <c r="I32" s="8" t="n"/>
@@ -1873,7 +1881,7 @@
       </c>
       <c r="B33" s="8" t="inlineStr">
         <is>
-          <t>1.23300000</t>
+          <t>1.22400000</t>
         </is>
       </c>
       <c r="C33" s="8" t="inlineStr">
@@ -1897,11 +1905,11 @@
         </is>
       </c>
       <c r="G33" s="8" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H33" s="8" t="inlineStr">
         <is>
-          <t>1.22800000</t>
+          <t>1.18200000</t>
         </is>
       </c>
       <c r="I33" s="8" t="n"/>
@@ -1914,7 +1922,7 @@
       </c>
       <c r="B34" s="8" t="inlineStr">
         <is>
-          <t>0.08357000</t>
+          <t>0.08592000</t>
         </is>
       </c>
       <c r="C34" s="8" t="inlineStr">
@@ -1938,11 +1946,11 @@
         </is>
       </c>
       <c r="G34" s="8" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H34" s="8" t="inlineStr">
         <is>
-          <t>0.08065000</t>
+          <t>0.08086000</t>
         </is>
       </c>
       <c r="I34" s="8" t="n"/>
@@ -1955,17 +1963,17 @@
       </c>
       <c r="B35" s="8" t="inlineStr">
         <is>
-          <t>4.69200000</t>
+          <t>4.86800000</t>
         </is>
       </c>
       <c r="C35" s="8" t="inlineStr">
         <is>
-          <t>3.81200000</t>
+          <t>3.82500000</t>
         </is>
       </c>
       <c r="D35" s="8" t="inlineStr">
         <is>
-          <t>13-12-21</t>
+          <t>14-12-21</t>
         </is>
       </c>
       <c r="E35" s="8" t="inlineStr">
@@ -1979,11 +1987,11 @@
         </is>
       </c>
       <c r="G35" s="8" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H35" s="8" t="inlineStr">
         <is>
-          <t>4.67400000</t>
+          <t>4.56100000</t>
         </is>
       </c>
       <c r="I35" s="8" t="n"/>
@@ -1996,7 +2004,7 @@
       </c>
       <c r="B36" s="8" t="inlineStr">
         <is>
-          <t>17.83000000</t>
+          <t>17.36000000</t>
         </is>
       </c>
       <c r="C36" s="8" t="inlineStr">
@@ -2020,11 +2028,11 @@
         </is>
       </c>
       <c r="G36" s="12" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H36" s="8" t="inlineStr">
         <is>
-          <t>16.71000000</t>
+          <t>16.77000000</t>
         </is>
       </c>
       <c r="I36" s="8" t="n"/>
@@ -2037,7 +2045,7 @@
       </c>
       <c r="B37" s="8" t="inlineStr">
         <is>
-          <t>0.40490000</t>
+          <t>0.42770000</t>
         </is>
       </c>
       <c r="C37" s="8" t="inlineStr">
@@ -2057,15 +2065,15 @@
       </c>
       <c r="F37" s="8" t="inlineStr">
         <is>
-          <t>0.42900000</t>
+          <t>0.45460000</t>
         </is>
       </c>
       <c r="G37" s="12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H37" s="8" t="inlineStr">
         <is>
-          <t>0.34045000</t>
+          <t>0.39142000</t>
         </is>
       </c>
       <c r="I37" s="8" t="n"/>
@@ -2078,17 +2086,17 @@
       </c>
       <c r="B38" s="8" t="inlineStr">
         <is>
-          <t>94.36000000</t>
+          <t>93.91000000</t>
         </is>
       </c>
       <c r="C38" s="8" t="inlineStr">
         <is>
-          <t>100.43000000</t>
+          <t>103.51000000</t>
         </is>
       </c>
       <c r="D38" s="8" t="inlineStr">
         <is>
-          <t>12-12-21</t>
+          <t>25-12-21</t>
         </is>
       </c>
       <c r="E38" s="8" t="inlineStr">
@@ -2106,7 +2114,7 @@
       </c>
       <c r="H38" s="8" t="inlineStr">
         <is>
-          <t>91.80000000</t>
+          <t>91.10000000</t>
         </is>
       </c>
       <c r="I38" s="8" t="n"/>
@@ -2119,7 +2127,7 @@
       </c>
       <c r="B39" s="8" t="inlineStr">
         <is>
-          <t>0.04384000</t>
+          <t>0.04693000</t>
         </is>
       </c>
       <c r="C39" s="8" t="inlineStr">
@@ -2143,11 +2151,11 @@
         </is>
       </c>
       <c r="G39" s="8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="H39" s="8" t="inlineStr">
         <is>
-          <t>0.04367000</t>
+          <t>0.04198000</t>
         </is>
       </c>
       <c r="I39" s="8" t="n"/>
@@ -2167,7 +2175,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F8"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -2231,7 +2239,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11.90900000</t>
+          <t>12.60200000</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2240,7 +2248,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-21</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="3">
@@ -2251,22 +2259,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3710.24000000</t>
+          <t>3756.04000000</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>4173.63000000</t>
+          <t>4150.00000000</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4173.63000000</t>
-        </is>
-      </c>
+          <t>4150.00000000</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2276,7 +2285,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>35.36000000</t>
+          <t>35.69000000</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2285,7 +2294,12 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>41.27000000</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2296,16 +2310,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>140.10000000</t>
+          <t>189.80000000</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>97.70000000</t>
+          <t>96.80000000</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-30</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="6">
@@ -2316,7 +2330,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>46886.31000000</t>
+          <t>47421.71000000</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2325,7 +2339,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -2341,66 +2355,67 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510.70000000</t>
+          <t>524.30000000</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>574.80000000</t>
+          <t>572.00000000</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>574.80000000</t>
-        </is>
-      </c>
+          <t>572.00000000</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FTMUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2.09460000</t>
+          <t>116.28000000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2.44880000</t>
+          <t>87.46000000</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>16</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.44880000</t>
-        </is>
+        <v>-24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>TRXUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>100.87000000</t>
+          <t>0.07691000</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>89.92000000</t>
+          <t>0.08887000</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-10</v>
+        <v>15</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.08887000</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/sst.xlsx
+++ b/sst.xlsx
@@ -56,7 +56,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -67,12 +67,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.3499862666707358"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1D2EF"/>
-        <bgColor rgb="FFD1D2EF"/>
       </patternFill>
     </fill>
     <fill>
@@ -145,7 +139,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -169,11 +163,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -591,15 +582,15 @@
       </c>
       <c r="B2" s="8" t="inlineStr">
         <is>
-          <t>43440.29000000</t>
+          <t>43100.73000000</t>
         </is>
       </c>
       <c r="C2" s="8" t="n">
-        <v>42500</v>
+        <v>42430.58</v>
       </c>
       <c r="D2" s="8" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E2" s="8" t="n">
@@ -609,10 +600,10 @@
         <v>52088</v>
       </c>
       <c r="G2" s="8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="8" t="n">
-        <v>42500</v>
+        <v>42430.58</v>
       </c>
       <c r="I2" s="8" t="inlineStr">
         <is>
@@ -628,15 +619,15 @@
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>3521.68000000</t>
+          <t>3422.44000000</t>
         </is>
       </c>
       <c r="C3" s="8" t="n">
-        <v>3415</v>
+        <v>3300</v>
       </c>
       <c r="D3" s="8" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E3" s="8" t="n">
@@ -646,10 +637,10 @@
         <v>4150</v>
       </c>
       <c r="G3" s="8" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="8" t="n">
-        <v>3415</v>
+        <v>3300</v>
       </c>
       <c r="I3" s="8" t="inlineStr">
         <is>
@@ -665,7 +656,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>470.60000000</t>
+          <t>475.50000000</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -683,7 +674,7 @@
         <v>572</v>
       </c>
       <c r="G4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" t="n">
         <v>457</v>
@@ -702,7 +693,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24.40000000</t>
+          <t>24.75000000</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -720,7 +711,7 @@
         <v>30.58</v>
       </c>
       <c r="G5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H5" t="n">
         <v>23.53</v>
@@ -739,7 +730,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>135.80000000</t>
+          <t>136.80000000</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -757,7 +748,7 @@
         <v>166.8</v>
       </c>
       <c r="G6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="n">
         <v>129.8</v>
@@ -776,7 +767,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>8.24400000</t>
+          <t>8.38300000</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -794,7 +785,7 @@
         <v>10.55</v>
       </c>
       <c r="G7" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" t="n">
         <v>7.897</v>
@@ -813,15 +804,15 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.23100000</t>
+          <t>1.27400000</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.193</v>
+        <v>1.186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -831,10 +822,10 @@
         <v>1.594</v>
       </c>
       <c r="G8" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H8" t="n">
-        <v>1.193</v>
+        <v>1.186</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -850,7 +841,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.76960000</t>
+          <t>0.78270000</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -868,7 +859,7 @@
         <v>1.0167</v>
       </c>
       <c r="G9" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H9" t="n">
         <v>0.7092000000000001</v>
@@ -887,7 +878,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2.88400000</t>
+          <t>2.92300000</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -905,7 +896,7 @@
         <v>3.53</v>
       </c>
       <c r="G10" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="n">
         <v>2.777</v>
@@ -924,7 +915,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.00020000</t>
+          <t>1.00030000</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -939,9 +930,9 @@
         <v>1.0002</v>
       </c>
       <c r="F11" t="n">
-        <v>1.0002</v>
-      </c>
-      <c r="G11" s="15" t="n">
+        <v>1.0003</v>
+      </c>
+      <c r="G11" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
@@ -956,7 +947,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1.17000000</t>
+          <t>1.19300000</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -974,7 +965,7 @@
         <v>1.55</v>
       </c>
       <c r="G12" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H12" t="n">
         <v>1.0974</v>
@@ -988,7 +979,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.26440000</t>
+          <t>0.26720000</t>
         </is>
       </c>
       <c r="C13" t="n">
@@ -1005,8 +996,8 @@
       <c r="F13" t="n">
         <v>0.3059</v>
       </c>
-      <c r="G13" s="15" t="n">
-        <v>15</v>
+      <c r="G13" s="11" t="n">
+        <v>14</v>
       </c>
       <c r="H13" t="n">
         <v>0.2543</v>
@@ -1020,7 +1011,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.62830000</t>
+          <t>0.62950000</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1057,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.07079000</t>
+          <t>0.07122000</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1075,7 +1066,7 @@
         <v>0.08322</v>
       </c>
       <c r="G15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H15" t="n">
         <v>0.06909999999999999</v>
@@ -1094,7 +1085,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>31.86000000</t>
+          <t>31.67000000</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1112,7 +1103,7 @@
         <v>38.79</v>
       </c>
       <c r="G16" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" t="n">
         <v>30.45</v>
@@ -1131,7 +1122,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.09700000</t>
+          <t>1.12000000</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1149,7 +1140,7 @@
         <v>1.974</v>
       </c>
       <c r="G17" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H17" t="n">
         <v>1.044</v>
@@ -1168,15 +1159,15 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.68010000</t>
+          <t>0.67070000</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6591</v>
+        <v>0.6445</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1186,10 +1177,10 @@
         <v>1.0474</v>
       </c>
       <c r="G18" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6591</v>
+        <v>0.6445</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1205,7 +1196,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.08399000</t>
+          <t>0.08299000</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -1223,7 +1214,7 @@
         <v>0.10298</v>
       </c>
       <c r="G19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H19" t="n">
         <v>0.07854999999999999</v>
@@ -1237,7 +1228,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>25.09000000</t>
+          <t>25.04000000</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1254,7 +1245,7 @@
       <c r="F20" t="n">
         <v>27.48</v>
       </c>
-      <c r="G20" s="15" t="n">
+      <c r="G20" s="11" t="n">
         <v>9</v>
       </c>
       <c r="H20" t="n">
@@ -1269,15 +1260,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>14.31000000</t>
+          <t>14.27000000</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>13.52</v>
+        <v>13.45</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1290,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="H21" t="n">
-        <v>13.52</v>
+        <v>13.45</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1306,7 +1297,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.00277100</t>
+          <t>0.00279400</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1323,8 +1314,8 @@
       <c r="F22" t="n">
         <v>0.00319</v>
       </c>
-      <c r="G22" s="15" t="n">
-        <v>15</v>
+      <c r="G22" s="11" t="n">
+        <v>14</v>
       </c>
       <c r="H22" t="n">
         <v>0.002651</v>
@@ -1338,7 +1329,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.74260000</t>
+          <t>0.73550000</t>
         </is>
       </c>
       <c r="C23" t="n">
@@ -1356,10 +1347,10 @@
         <v>0.9089</v>
       </c>
       <c r="G23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H23" t="n">
-        <v>0.7171999999999999</v>
+        <v>0.7141999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -1370,7 +1361,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.00670000</t>
+          <t>0.00667400</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1407,7 +1398,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.06662000</t>
+          <t>0.06585000</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1425,7 +1416,7 @@
         <v>0.08534</v>
       </c>
       <c r="G25" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H25" t="n">
         <v>0.0622</v>
@@ -1439,7 +1430,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.82010000</t>
+          <t>0.79660000</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1457,10 +1448,10 @@
         <v>0.9905</v>
       </c>
       <c r="G26" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H26" t="n">
-        <v>0.7858000000000001</v>
+        <v>0.7647</v>
       </c>
     </row>
     <row r="27">
@@ -1471,7 +1462,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.59700000</t>
+          <t>0.54600000</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1488,8 +1479,8 @@
       <c r="F27" t="n">
         <v>0.65</v>
       </c>
-      <c r="G27" s="15" t="n">
-        <v>8</v>
+      <c r="G27" t="n">
+        <v>19</v>
       </c>
       <c r="H27" t="n">
         <v>0.5206</v>
@@ -1503,7 +1494,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1.17580000</t>
+          <t>1.18270000</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1521,10 +1512,10 @@
         <v>1.4539</v>
       </c>
       <c r="G28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H28" t="n">
-        <v>1.121</v>
+        <v>1.1079</v>
       </c>
     </row>
     <row r="29">
@@ -1535,7 +1526,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>204.70000000</t>
+          <t>201.60000000</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1553,10 +1544,10 @@
         <v>255.3</v>
       </c>
       <c r="G29" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H29" t="n">
-        <v>200.7</v>
+        <v>193.8</v>
       </c>
     </row>
     <row r="30">
@@ -1567,7 +1558,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>136.80000000</t>
+          <t>138.00000000</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1585,7 +1576,7 @@
         <v>173.6</v>
       </c>
       <c r="G30" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H30" t="n">
         <v>127.5</v>
@@ -1604,7 +1595,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.02972000</t>
+          <t>0.03063000</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1622,7 +1613,7 @@
         <v>0.03819</v>
       </c>
       <c r="G31" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H31" t="n">
         <v>0.02879</v>
@@ -1636,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.07730000</t>
+          <t>0.07542000</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1654,7 +1645,7 @@
         <v>0.09403</v>
       </c>
       <c r="G32" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H32" t="n">
         <v>0.073</v>
@@ -1668,7 +1659,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>122.70000000</t>
+          <t>124.50000000</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1686,7 +1677,7 @@
         <v>157.8</v>
       </c>
       <c r="G33" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H33" t="n">
         <v>117</v>
@@ -1705,7 +1696,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3.38600000</t>
+          <t>3.34700000</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1723,10 +1714,10 @@
         <v>4.1</v>
       </c>
       <c r="G34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H34" t="n">
-        <v>3.296</v>
+        <v>3.263</v>
       </c>
     </row>
     <row r="35">
@@ -1737,7 +1728,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>5.56600000</t>
+          <t>5.65200000</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1755,7 +1746,7 @@
         <v>7.197</v>
       </c>
       <c r="G35" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H35" t="n">
         <v>5.305</v>
@@ -1806,7 +1797,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.43400000</t>
+          <t>2.54600000</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1824,7 +1815,7 @@
         <v>3.339</v>
       </c>
       <c r="G37" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H37" t="n">
         <v>2.238</v>
@@ -1838,15 +1829,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.05452000</t>
+          <t>0.05417000</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.05248</v>
+        <v>0.05085</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1856,10 +1847,10 @@
         <v>0.0745</v>
       </c>
       <c r="G38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>0.05248</v>
+        <v>0.05085</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
@@ -1875,7 +1866,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2.19200000</t>
+          <t>2.24000000</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1893,7 +1884,7 @@
         <v>2.923</v>
       </c>
       <c r="G39" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H39" t="n">
         <v>2.02</v>
@@ -1912,7 +1903,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>39.02000000</t>
+          <t>39.58000000</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1929,8 +1920,8 @@
       <c r="F40" t="n">
         <v>43.95</v>
       </c>
-      <c r="G40" s="15" t="n">
-        <v>12</v>
+      <c r="G40" s="11" t="n">
+        <v>11</v>
       </c>
       <c r="H40" t="n">
         <v>34.59</v>
@@ -1944,15 +1935,15 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.18220000</t>
+          <t>0.17630000</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.1737</v>
+        <v>0.1697</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1962,10 +1953,10 @@
         <v>0.25</v>
       </c>
       <c r="G41" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1737</v>
+        <v>0.1697</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -1981,7 +1972,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.28382000</t>
+          <t>0.30912000</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1998,8 +1989,8 @@
       <c r="F42" t="n">
         <v>0.331</v>
       </c>
-      <c r="G42" t="n">
-        <v>16</v>
+      <c r="G42" s="11" t="n">
+        <v>7</v>
       </c>
       <c r="H42" t="n">
         <v>0.25711</v>
@@ -2013,7 +2004,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2.89760000</t>
+          <t>2.93620000</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -2030,8 +2021,8 @@
       <c r="F43" t="n">
         <v>3.1599</v>
       </c>
-      <c r="G43" s="15" t="n">
-        <v>9</v>
+      <c r="G43" s="11" t="n">
+        <v>7</v>
       </c>
       <c r="H43" t="n">
         <v>2.5945</v>
@@ -2045,7 +2036,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1.54950000</t>
+          <t>1.56810000</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -2063,7 +2054,7 @@
         <v>1.8451</v>
       </c>
       <c r="G44" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H44" t="n">
         <v>1.447</v>
@@ -2077,15 +2068,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0.05491000</t>
+          <t>0.05468000</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.05347</v>
+        <v>0.05224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2095,10 +2086,10 @@
         <v>0.07722</v>
       </c>
       <c r="G45" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H45" t="n">
-        <v>0.05347</v>
+        <v>0.05224</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2114,7 +2105,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0.15880000</t>
+          <t>0.16020000</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2132,7 +2123,7 @@
         <v>0.1957</v>
       </c>
       <c r="G46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H46" t="n">
         <v>0.1472</v>
@@ -2151,7 +2142,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0.73440000</t>
+          <t>0.79140000</t>
         </is>
       </c>
       <c r="C47" t="n">
@@ -2169,10 +2160,10 @@
         <v>1.1743</v>
       </c>
       <c r="G47" t="n">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="H47" t="n">
-        <v>0.6831</v>
+        <v>0.6586</v>
       </c>
     </row>
     <row r="48">
@@ -2204,7 +2195,7 @@
         <v>18</v>
       </c>
       <c r="H48" t="n">
-        <v>0.09746</v>
+        <v>0.0969</v>
       </c>
     </row>
     <row r="49">
@@ -2215,7 +2206,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.00041370</t>
+          <t>0.00041670</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2233,7 +2224,7 @@
         <v>0.0005437</v>
       </c>
       <c r="G49" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H49" t="n">
         <v>0.000402</v>
@@ -2252,7 +2243,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0.02283000</t>
+          <t>0.02332000</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2270,7 +2261,7 @@
         <v>0.03369</v>
       </c>
       <c r="G50" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H50" t="n">
         <v>0.0218</v>
@@ -2289,15 +2280,15 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1.94750000</t>
+          <t>1.92520000</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.8748</v>
+        <v>1.82</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E51" t="n">
@@ -2307,10 +2298,10 @@
         <v>2.695</v>
       </c>
       <c r="G51" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H51" t="n">
-        <v>1.8748</v>
+        <v>1.82</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2326,15 +2317,15 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2.08200000</t>
+          <t>2.02800000</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.974</v>
+        <v>1.958</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E52" t="n">
@@ -2344,10 +2335,15 @@
         <v>2.459</v>
       </c>
       <c r="G52" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H52" t="n">
-        <v>1.983</v>
+        <v>1.958</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2358,15 +2354,15 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1.70300000</t>
+          <t>1.69000000</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.616</v>
+        <v>1.611</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E53" t="n">
@@ -2376,10 +2372,10 @@
         <v>2.295</v>
       </c>
       <c r="G53" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H53" t="n">
-        <v>1.616</v>
+        <v>1.611</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2395,15 +2391,15 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.07438000</t>
+          <t>0.07606000</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.07133</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E54" t="n">
@@ -2413,10 +2409,10 @@
         <v>0.10798</v>
       </c>
       <c r="G54" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H54" t="n">
-        <v>0.07140000000000001</v>
+        <v>0.07133</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
@@ -2432,7 +2428,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0.00353500</t>
+          <t>0.00356400</t>
         </is>
       </c>
       <c r="C55" t="n">
@@ -2450,7 +2446,7 @@
         <v>0.0055</v>
       </c>
       <c r="G55" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H55" t="n">
         <v>0.0033</v>
@@ -2464,7 +2460,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.00839400</t>
+          <t>0.00845200</t>
         </is>
       </c>
       <c r="C56" t="n">
@@ -2482,7 +2478,7 @@
         <v>0.012</v>
       </c>
       <c r="G56" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56" t="n">
         <v>0.008085999999999999</v>
@@ -2501,15 +2497,15 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.01171300</t>
+          <t>0.01181500</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.011276</v>
+        <v>0.011164</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E57" t="n">
@@ -2519,10 +2515,15 @@
         <v>0.016169</v>
       </c>
       <c r="G57" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0113</v>
+        <v>0.011164</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2533,15 +2534,15 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0.06090000</t>
+          <t>0.06001000</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E58" t="n">
@@ -2551,10 +2552,10 @@
         <v>0.08784</v>
       </c>
       <c r="G58" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H58" t="n">
-        <v>0.06</v>
+        <v>0.059</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2570,15 +2571,15 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0.63430000</t>
+          <t>0.61320000</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.6125</v>
+        <v>0.5891</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E59" t="n">
@@ -2588,10 +2589,10 @@
         <v>0.87</v>
       </c>
       <c r="G59" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H59" t="n">
-        <v>0.6125</v>
+        <v>0.5891</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2607,7 +2608,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0.01187000</t>
+          <t>0.01135000</t>
         </is>
       </c>
       <c r="C60" t="n">
@@ -2625,10 +2626,10 @@
         <v>0.01771</v>
       </c>
       <c r="G60" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H60" t="n">
-        <v>0.01168</v>
+        <v>0.01105</v>
       </c>
     </row>
     <row r="61">
@@ -2639,7 +2640,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.33130000</t>
+          <t>0.33470000</t>
         </is>
       </c>
       <c r="C61" t="n">
@@ -2657,7 +2658,7 @@
         <v>0.4398</v>
       </c>
       <c r="G61" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H61" t="n">
         <v>0.3117</v>
@@ -2671,7 +2672,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0.27770000</t>
+          <t>0.28110000</t>
         </is>
       </c>
       <c r="C62" t="n">
@@ -2689,7 +2690,7 @@
         <v>0.3532</v>
       </c>
       <c r="G62" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H62" t="n">
         <v>0.2627</v>
@@ -2703,7 +2704,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>6.30300000</t>
+          <t>5.86300000</t>
         </is>
       </c>
       <c r="C63" t="n">
@@ -2720,8 +2721,8 @@
       <c r="F63" t="n">
         <v>7</v>
       </c>
-      <c r="G63" s="15" t="n">
-        <v>11</v>
+      <c r="G63" t="n">
+        <v>19</v>
       </c>
       <c r="H63" t="n">
         <v>5.464</v>
@@ -2752,7 +2753,7 @@
       <c r="F64" t="n">
         <v>1.0003</v>
       </c>
-      <c r="G64" s="15" t="n">
+      <c r="G64" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H64" t="n">
@@ -2767,15 +2768,15 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0.53480000</t>
+          <t>0.52430000</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.521</v>
+        <v>0.5039</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E65" t="n">
@@ -2785,10 +2786,10 @@
         <v>0.7541</v>
       </c>
       <c r="G65" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H65" t="n">
-        <v>0.521</v>
+        <v>0.5039</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -2804,7 +2805,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4.48400000</t>
+          <t>4.48500000</t>
         </is>
       </c>
       <c r="C66" t="n">
@@ -2825,7 +2826,7 @@
         <v>19</v>
       </c>
       <c r="H66" t="n">
-        <v>4.276</v>
+        <v>4.214</v>
       </c>
     </row>
     <row r="67">
@@ -2836,7 +2837,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0.51710000</t>
+          <t>0.52170000</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -2854,10 +2855,10 @@
         <v>0.7715</v>
       </c>
       <c r="G67" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H67" t="n">
-        <v>0.4908</v>
+        <v>0.4852</v>
       </c>
     </row>
     <row r="68">
@@ -2868,7 +2869,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0.12253000</t>
+          <t>0.12513000</t>
         </is>
       </c>
       <c r="C68" t="n">
@@ -2885,8 +2886,8 @@
       <c r="F68" t="n">
         <v>0.1388</v>
       </c>
-      <c r="G68" s="15" t="n">
-        <v>13</v>
+      <c r="G68" s="11" t="n">
+        <v>10</v>
       </c>
       <c r="H68" t="n">
         <v>0.10858</v>
@@ -2900,7 +2901,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0.28750000</t>
+          <t>0.29420000</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -2918,7 +2919,7 @@
         <v>0.3433</v>
       </c>
       <c r="G69" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H69" t="n">
         <v>0.2697</v>
@@ -2932,7 +2933,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0.34060000</t>
+          <t>0.33320000</t>
         </is>
       </c>
       <c r="C70" t="n">
@@ -2950,10 +2951,10 @@
         <v>0.4476</v>
       </c>
       <c r="G70" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H70" t="n">
-        <v>0.322</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="71">
@@ -2964,7 +2965,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2.22800000</t>
+          <t>2.18300000</t>
         </is>
       </c>
       <c r="C71" t="n">
@@ -2982,10 +2983,10 @@
         <v>2.7</v>
       </c>
       <c r="G71" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H71" t="n">
-        <v>2.093</v>
+        <v>2.064</v>
       </c>
     </row>
     <row r="72">
@@ -2996,7 +2997,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>4.38000000</t>
+          <t>4.21500000</t>
         </is>
       </c>
       <c r="C72" t="n">
@@ -3014,10 +3015,10 @@
         <v>5.1</v>
       </c>
       <c r="G72" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H72" t="n">
-        <v>4.136</v>
+        <v>4.031</v>
       </c>
     </row>
     <row r="73">
@@ -3028,7 +3029,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0.09129000</t>
+          <t>0.09214000</t>
         </is>
       </c>
       <c r="C73" t="n">
@@ -3046,7 +3047,7 @@
         <v>0.1278</v>
       </c>
       <c r="G73" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H73" t="n">
         <v>0.08616</v>
@@ -3065,7 +3066,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0.10991000</t>
+          <t>0.11013000</t>
         </is>
       </c>
       <c r="C74" t="n">
@@ -3102,7 +3103,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3.12000000</t>
+          <t>3.03500000</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -3120,10 +3121,10 @@
         <v>3.627</v>
       </c>
       <c r="G75" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H75" t="n">
-        <v>2.937</v>
+        <v>2.902</v>
       </c>
     </row>
     <row r="76">
@@ -3134,7 +3135,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0.43210000</t>
+          <t>0.44260000</t>
         </is>
       </c>
       <c r="C76" t="n">
@@ -3152,10 +3153,10 @@
         <v>0.6178</v>
       </c>
       <c r="G76" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H76" t="n">
-        <v>0.415</v>
+        <v>0.4103</v>
       </c>
     </row>
     <row r="77">
@@ -3166,15 +3167,15 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>399.50000000</t>
+          <t>400.10000000</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>391.1</v>
+        <v>387.3</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E77" t="n">
@@ -3184,10 +3185,10 @@
         <v>476</v>
       </c>
       <c r="G77" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H77" t="n">
-        <v>391.1</v>
+        <v>387.3</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3203,7 +3204,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0.00992900</t>
+          <t>0.00994100</t>
         </is>
       </c>
       <c r="C78" t="n">
@@ -3240,7 +3241,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0.07629000</t>
+          <t>0.07620000</t>
         </is>
       </c>
       <c r="C79" t="n">
@@ -3277,15 +3278,15 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>37.89000000</t>
+          <t>38.88000000</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>37.07</v>
+        <v>36.41</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E80" t="n">
@@ -3294,11 +3295,11 @@
       <c r="F80" t="n">
         <v>44.1</v>
       </c>
-      <c r="G80" t="n">
-        <v>16</v>
+      <c r="G80" s="11" t="n">
+        <v>13</v>
       </c>
       <c r="H80" t="n">
-        <v>37.07</v>
+        <v>36.41</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -3314,7 +3315,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.12900000</t>
+          <t>1.12800000</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -3331,7 +3332,7 @@
       <c r="F81" t="n">
         <v>1.138</v>
       </c>
-      <c r="G81" s="15" t="n">
+      <c r="G81" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H81" t="n">
@@ -3383,7 +3384,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1.12590000</t>
+          <t>1.20850000</t>
         </is>
       </c>
       <c r="C83" t="n">
@@ -3401,10 +3402,10 @@
         <v>1.585</v>
       </c>
       <c r="G83" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H83" t="n">
-        <v>1.074</v>
+        <v>1.0593</v>
       </c>
     </row>
     <row r="84">
@@ -3415,15 +3416,15 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>0.03170000</t>
+          <t>0.03134000</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.03138</v>
+        <v>0.02977</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E84" t="n">
@@ -3433,10 +3434,10 @@
         <v>0.05076</v>
       </c>
       <c r="G84" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H84" t="n">
-        <v>0.03138</v>
+        <v>0.02977</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -3452,7 +3453,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1.10700000</t>
+          <t>1.10200000</t>
         </is>
       </c>
       <c r="C85" t="n">
@@ -3470,7 +3471,7 @@
         <v>1.4</v>
       </c>
       <c r="G85" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H85" t="n">
         <v>1.05</v>
@@ -3484,7 +3485,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>0.03449000</t>
+          <t>0.03403000</t>
         </is>
       </c>
       <c r="C86" t="n">
@@ -3502,10 +3503,10 @@
         <v>0.04043</v>
       </c>
       <c r="G86" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H86" t="n">
-        <v>0.033</v>
+        <v>0.03269</v>
       </c>
     </row>
     <row r="87">
@@ -3516,15 +3517,15 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2.18300000</t>
+          <t>2.15300000</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.131</v>
+        <v>2.088</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E87" t="n">
@@ -3534,10 +3535,10 @@
         <v>3.081</v>
       </c>
       <c r="G87" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H87" t="n">
-        <v>2.131</v>
+        <v>2.088</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -3553,7 +3554,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>3.29600000</t>
+          <t>3.23100000</t>
         </is>
       </c>
       <c r="C88" t="n">
@@ -3570,11 +3571,11 @@
       <c r="F88" t="n">
         <v>3.751</v>
       </c>
-      <c r="G88" s="15" t="n">
-        <v>13</v>
+      <c r="G88" t="n">
+        <v>16</v>
       </c>
       <c r="H88" t="n">
-        <v>3.149</v>
+        <v>3.112</v>
       </c>
     </row>
     <row r="89">
@@ -3585,7 +3586,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>0.34850000</t>
+          <t>0.34490000</t>
         </is>
       </c>
       <c r="C89" t="n">
@@ -3603,10 +3604,10 @@
         <v>0.476</v>
       </c>
       <c r="G89" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H89" t="n">
-        <v>0.3401</v>
+        <v>0.3262</v>
       </c>
     </row>
     <row r="90">
@@ -3617,15 +3618,15 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>0.13640000</t>
+          <t>0.13520000</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.1329</v>
+        <v>0.1282</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E90" t="n">
@@ -3635,10 +3636,10 @@
         <v>0.1712</v>
       </c>
       <c r="G90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1329</v>
+        <v>0.1282</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -3654,15 +3655,15 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0.00789700</t>
+          <t>0.00796300</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.007801</v>
+        <v>0.007719</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E91" t="n">
@@ -3672,10 +3673,10 @@
         <v>0.010818</v>
       </c>
       <c r="G91" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H91" t="n">
-        <v>0.007801</v>
+        <v>0.007719</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -3691,7 +3692,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>0.36550000</t>
+          <t>0.37190000</t>
         </is>
       </c>
       <c r="C92" t="n">
@@ -3709,10 +3710,10 @@
         <v>0.4598</v>
       </c>
       <c r="G92" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H92" t="n">
-        <v>0.3463</v>
+        <v>0.3453</v>
       </c>
     </row>
     <row r="93">
@@ -3723,15 +3724,15 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0.09995000</t>
+          <t>0.09825000</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.09588000000000001</v>
+        <v>0.09518</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E93" t="n">
@@ -3741,10 +3742,10 @@
         <v>0.1269</v>
       </c>
       <c r="G93" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H93" t="n">
-        <v>0.09588000000000001</v>
+        <v>0.09518</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -3760,15 +3761,15 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0.84000000</t>
+          <t>0.83650000</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8041</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E94" t="n">
@@ -3778,10 +3779,10 @@
         <v>1.2671</v>
       </c>
       <c r="G94" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H94" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8041</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -3797,7 +3798,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0.10734000</t>
+          <t>0.10663000</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -3834,7 +3835,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>153.17000000</t>
+          <t>151.73000000</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -3852,7 +3853,7 @@
         <v>204.75</v>
       </c>
       <c r="G96" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H96" t="n">
         <v>144.92</v>
@@ -3871,7 +3872,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>0.64600000</t>
+          <t>0.64970000</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -3903,7 +3904,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>1.50170000</t>
+          <t>1.47730000</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -3921,7 +3922,7 @@
         <v>1.9071</v>
       </c>
       <c r="G98" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H98" t="n">
         <v>1.3831</v>
@@ -3935,7 +3936,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>0.75530000</t>
+          <t>0.76540000</t>
         </is>
       </c>
       <c r="C99" t="n">
@@ -3953,7 +3954,7 @@
         <v>0.971</v>
       </c>
       <c r="G99" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H99" t="n">
         <v>0.709</v>
@@ -3967,15 +3968,15 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>53.55000000</t>
+          <t>52.48400000</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>50.175</v>
+        <v>50.1</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E100" t="n">
@@ -3985,10 +3986,10 @@
         <v>89.614</v>
       </c>
       <c r="G100" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H100" t="n">
-        <v>50.175</v>
+        <v>50.1</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -4004,7 +4005,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0.01567500</t>
+          <t>0.01589000</t>
         </is>
       </c>
       <c r="C101" t="n">
@@ -4019,10 +4020,10 @@
         <v>0.013999</v>
       </c>
       <c r="F101" t="n">
-        <v>0.016499</v>
-      </c>
-      <c r="G101" s="15" t="n">
-        <v>5</v>
+        <v>0.016543</v>
+      </c>
+      <c r="G101" s="11" t="n">
+        <v>4</v>
       </c>
       <c r="H101" t="n">
         <v>0.01256</v>
@@ -4036,7 +4037,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2.17750000</t>
+          <t>2.35560000</t>
         </is>
       </c>
       <c r="C102" t="n">
@@ -4054,7 +4055,7 @@
         <v>3.0381</v>
       </c>
       <c r="G102" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="H102" t="n">
         <v>2.0335</v>
@@ -4068,7 +4069,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>0.23310000</t>
+          <t>0.22800000</t>
         </is>
       </c>
       <c r="C103" t="n">
@@ -4086,10 +4087,10 @@
         <v>0.3882</v>
       </c>
       <c r="G103" t="n">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H103" t="n">
-        <v>0.223</v>
+        <v>0.2199</v>
       </c>
     </row>
     <row r="104">
@@ -4100,7 +4101,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>0.10595000</t>
+          <t>0.10100000</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -4118,10 +4119,10 @@
         <v>0.17888</v>
       </c>
       <c r="G104" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="H104" t="n">
-        <v>0.09687999999999999</v>
+        <v>0.0958</v>
       </c>
     </row>
     <row r="105">
@@ -4132,15 +4133,15 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>0.02031000</t>
+          <t>0.02042000</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.01938</v>
+        <v>0.01933</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E105" t="n">
@@ -4150,10 +4151,10 @@
         <v>0.02545</v>
       </c>
       <c r="G105" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H105" t="n">
-        <v>0.01938</v>
+        <v>0.01933</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
@@ -4169,15 +4170,15 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>1.25700000</t>
+          <t>1.31000000</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1.193</v>
+        <v>1.184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E106" t="n">
@@ -4187,10 +4188,15 @@
         <v>1.565</v>
       </c>
       <c r="G106" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H106" t="n">
-        <v>1.211</v>
+        <v>1.184</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4201,7 +4207,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16.77000000</t>
+          <t>16.55000000</t>
         </is>
       </c>
       <c r="C107" t="n">
@@ -4219,10 +4225,10 @@
         <v>22</v>
       </c>
       <c r="G107" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H107" t="n">
-        <v>16.4</v>
+        <v>16.02</v>
       </c>
     </row>
     <row r="108">
@@ -4233,7 +4239,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>1.79670000</t>
+          <t>1.93470000</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4251,7 +4257,7 @@
         <v>2.4579</v>
       </c>
       <c r="G108" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="H108" t="n">
         <v>1.6417</v>
@@ -4270,7 +4276,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>0.89140000</t>
+          <t>0.86950000</t>
         </is>
       </c>
       <c r="C109" t="n">
@@ -4288,10 +4294,10 @@
         <v>1.22</v>
       </c>
       <c r="G109" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H109" t="n">
-        <v>0.8541</v>
+        <v>0.8391999999999999</v>
       </c>
     </row>
     <row r="110">
@@ -4302,7 +4308,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>203.50000000</t>
+          <t>204.90000000</t>
         </is>
       </c>
       <c r="C110" t="n">
@@ -4320,10 +4326,10 @@
         <v>249</v>
       </c>
       <c r="G110" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H110" t="n">
-        <v>195.9</v>
+        <v>192</v>
       </c>
     </row>
     <row r="111">
@@ -4334,15 +4340,15 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>0.01447000</t>
+          <t>0.01449000</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>0.01398</v>
+        <v>0.01368</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E111" t="n">
@@ -4355,7 +4361,7 @@
         <v>23</v>
       </c>
       <c r="H111" t="n">
-        <v>0.01398</v>
+        <v>0.01368</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -4371,15 +4377,15 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>59.94000000</t>
+          <t>57.96000000</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>57</v>
+        <v>56.3</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E112" t="n">
@@ -4389,10 +4395,10 @@
         <v>76</v>
       </c>
       <c r="G112" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H112" t="n">
-        <v>57</v>
+        <v>56.3</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -4408,7 +4414,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>6.33600000</t>
+          <t>6.00500000</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4426,10 +4432,10 @@
         <v>7.46</v>
       </c>
       <c r="G113" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H113" t="n">
-        <v>5.95</v>
+        <v>5.833</v>
       </c>
     </row>
     <row r="114">
@@ -4440,15 +4446,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>67.32200000</t>
+          <t>62.15100000</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>61.499</v>
+        <v>55.841</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E114" t="n">
@@ -4458,10 +4464,10 @@
         <v>100.82</v>
       </c>
       <c r="G114" t="n">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="H114" t="n">
-        <v>61.499</v>
+        <v>55.841</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -4477,7 +4483,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0.70020000</t>
+          <t>0.73660000</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -4492,10 +4498,10 @@
         <v>0.6807</v>
       </c>
       <c r="F115" t="n">
-        <v>0.7422</v>
-      </c>
-      <c r="G115" s="15" t="n">
-        <v>5</v>
+        <v>0.7862</v>
+      </c>
+      <c r="G115" s="11" t="n">
+        <v>6</v>
       </c>
       <c r="H115" t="n">
         <v>0.5749</v>
@@ -4509,15 +4515,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>25.39300000</t>
+          <t>27.46100000</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>23.178</v>
+        <v>23.044</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E116" t="n">
@@ -4527,10 +4533,10 @@
         <v>47.98</v>
       </c>
       <c r="G116" t="n">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="H116" t="n">
-        <v>23.178</v>
+        <v>23.044</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -4546,7 +4552,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>0.00703500</t>
+          <t>0.00655500</t>
         </is>
       </c>
       <c r="C117" t="n">
@@ -4564,7 +4570,7 @@
         <v>0.008173</v>
       </c>
       <c r="G117" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H117" t="n">
         <v>0.005832</v>
@@ -4578,7 +4584,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0.73440000</t>
+          <t>0.73520000</t>
         </is>
       </c>
       <c r="C118" t="n">
@@ -4610,7 +4616,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0.00564100</t>
+          <t>0.00562500</t>
         </is>
       </c>
       <c r="C119" t="n">
@@ -4628,7 +4634,7 @@
         <v>0.019024</v>
       </c>
       <c r="G119" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H119" t="n">
         <v>0.005101</v>
@@ -4647,7 +4653,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>0.00601100</t>
+          <t>0.00595500</t>
         </is>
       </c>
       <c r="C120" t="n">
@@ -4665,10 +4671,10 @@
         <v>0.01</v>
       </c>
       <c r="G120" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H120" t="n">
-        <v>0.00581</v>
+        <v>0.005727</v>
       </c>
     </row>
     <row r="121">
@@ -4679,7 +4685,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>0.03071000</t>
+          <t>0.03081000</t>
         </is>
       </c>
       <c r="C121" t="n">
@@ -4697,7 +4703,7 @@
         <v>0.04</v>
       </c>
       <c r="G121" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H121" t="n">
         <v>0.02902</v>
@@ -4716,7 +4722,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.35200000</t>
+          <t>1.35100000</t>
         </is>
       </c>
       <c r="C122" t="n">
@@ -4733,7 +4739,7 @@
       <c r="F122" t="n">
         <v>1.36</v>
       </c>
-      <c r="G122" s="15" t="n">
+      <c r="G122" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H122" t="n">
@@ -4748,7 +4754,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>1.66800000</t>
+          <t>1.70100000</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -4766,7 +4772,7 @@
         <v>2.359</v>
       </c>
       <c r="G123" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H123" t="n">
         <v>1.569</v>
@@ -4780,15 +4786,15 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2226.00000000</t>
+          <t>2256.00000000</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2177</v>
+        <v>2113</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E124" t="n">
@@ -4798,10 +4804,10 @@
         <v>2814</v>
       </c>
       <c r="G124" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H124" t="n">
-        <v>2177</v>
+        <v>2113</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -4817,7 +4823,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>66.20000000</t>
+          <t>63.60000000</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -4835,10 +4841,10 @@
         <v>114.2</v>
       </c>
       <c r="G125" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H125" t="n">
-        <v>64.2</v>
+        <v>62.7</v>
       </c>
     </row>
     <row r="126">
@@ -4849,7 +4855,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.63530000</t>
+          <t>1.65740000</t>
         </is>
       </c>
       <c r="C126" t="n">
@@ -4867,7 +4873,7 @@
         <v>2.1856</v>
       </c>
       <c r="G126" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H126" t="n">
         <v>1.5314</v>
@@ -4886,7 +4892,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>404.91000000</t>
+          <t>414.99000000</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4904,7 +4910,7 @@
         <v>694.47</v>
       </c>
       <c r="G127" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H127" t="n">
         <v>369.49</v>
@@ -4923,7 +4929,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>0.10710000</t>
+          <t>0.10500000</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -4940,8 +4946,8 @@
       <c r="F128" t="n">
         <v>0.11384</v>
       </c>
-      <c r="G128" s="15" t="n">
-        <v>6</v>
+      <c r="G128" s="11" t="n">
+        <v>8</v>
       </c>
       <c r="H128" t="n">
         <v>0.0868</v>
@@ -4955,15 +4961,15 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>0.01159000</t>
+          <t>0.01130000</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.01039</v>
+        <v>0.01007</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E129" t="n">
@@ -4973,10 +4979,10 @@
         <v>0.01897</v>
       </c>
       <c r="G129" t="n">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H129" t="n">
-        <v>0.01039</v>
+        <v>0.01007</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -4992,7 +4998,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2.90870000</t>
+          <t>3.34470000</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -5010,7 +5016,7 @@
         <v>3.9694</v>
       </c>
       <c r="G130" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="H130" t="n">
         <v>2.67</v>
@@ -5029,7 +5035,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>0.72080000</t>
+          <t>0.71490000</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -5046,11 +5052,11 @@
       <c r="F131" t="n">
         <v>0.7267</v>
       </c>
-      <c r="G131" s="15" t="n">
-        <v>0</v>
+      <c r="G131" s="11" t="n">
+        <v>1</v>
       </c>
       <c r="H131" t="n">
-        <v>0.7166</v>
+        <v>0.7131999999999999</v>
       </c>
     </row>
     <row r="132">
@@ -5061,7 +5067,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>32675.08000000</t>
+          <t>35783.70000000</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -5079,7 +5085,7 @@
         <v>41749.34</v>
       </c>
       <c r="G132" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="H132" t="n">
         <v>30868.67</v>
@@ -5093,7 +5099,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>17.52000000</t>
+          <t>17.70000000</t>
         </is>
       </c>
       <c r="C133" t="n">
@@ -5110,11 +5116,11 @@
       <c r="F133" t="n">
         <v>20.42</v>
       </c>
-      <c r="G133" t="n">
-        <v>16</v>
+      <c r="G133" s="11" t="n">
+        <v>15</v>
       </c>
       <c r="H133" t="n">
-        <v>16.62</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="134">
@@ -5125,15 +5131,15 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>0.20530000</t>
+          <t>0.20570000</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0.1967</v>
+        <v>0.1924</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E134" t="n">
@@ -5146,7 +5152,7 @@
         <v>27</v>
       </c>
       <c r="H134" t="n">
-        <v>0.1967</v>
+        <v>0.1924</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -5162,7 +5168,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>0.08609000</t>
+          <t>0.08457000</t>
         </is>
       </c>
       <c r="C135" t="n">
@@ -5180,10 +5186,10 @@
         <v>0.1188</v>
       </c>
       <c r="G135" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H135" t="n">
-        <v>0.081</v>
+        <v>0.07985</v>
       </c>
     </row>
     <row r="136">
@@ -5194,7 +5200,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>0.68910000</t>
+          <t>0.68520000</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -5212,7 +5218,7 @@
         <v>0.98</v>
       </c>
       <c r="G136" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H136" t="n">
         <v>0.6548</v>
@@ -5231,15 +5237,15 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>0.05163000</t>
+          <t>0.05197000</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.05064</v>
+        <v>0.05031</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E137" t="n">
@@ -5249,10 +5255,10 @@
         <v>0.06056</v>
       </c>
       <c r="G137" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H137" t="n">
-        <v>0.05064</v>
+        <v>0.05031</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -5268,15 +5274,15 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>3.39400000</t>
+          <t>3.26400000</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>3.201</v>
+        <v>3.165</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E138" t="n">
@@ -5286,10 +5292,15 @@
         <v>4.283</v>
       </c>
       <c r="G138" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H138" t="n">
-        <v>3.236</v>
+        <v>3.165</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="139">
@@ -5300,7 +5311,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>10.30000000</t>
+          <t>11.04400000</t>
         </is>
       </c>
       <c r="C139" t="n">
@@ -5318,7 +5329,7 @@
         <v>14.293</v>
       </c>
       <c r="G139" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H139" t="n">
         <v>9.4</v>
@@ -5332,7 +5343,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>5.45400000</t>
+          <t>5.42200000</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5350,7 +5361,7 @@
         <v>6.8</v>
       </c>
       <c r="G140" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H140" t="n">
         <v>4.991</v>
@@ -5364,7 +5375,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>5.00950000</t>
+          <t>5.18890000</t>
         </is>
       </c>
       <c r="C141" t="n">
@@ -5382,7 +5393,7 @@
         <v>6.9636</v>
       </c>
       <c r="G141" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H141" t="n">
         <v>4.7095</v>
@@ -5401,7 +5412,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>0.86850000</t>
+          <t>0.82830000</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5419,7 +5430,7 @@
         <v>1.28</v>
       </c>
       <c r="G142" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="H142" t="n">
         <v>0.819</v>
@@ -5433,15 +5444,15 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>29.97000000</t>
+          <t>29.64000000</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>29</v>
+        <v>28.81</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E143" t="n">
@@ -5451,10 +5462,10 @@
         <v>37.99</v>
       </c>
       <c r="G143" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H143" t="n">
-        <v>29</v>
+        <v>28.81</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -5470,7 +5481,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>26.69000000</t>
+          <t>26.81000000</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5502,7 +5513,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>78.14000000</t>
+          <t>79.58000000</t>
         </is>
       </c>
       <c r="C145" t="n">
@@ -5520,7 +5531,7 @@
         <v>103.6</v>
       </c>
       <c r="G145" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H145" t="n">
         <v>73.28</v>
@@ -5534,15 +5545,15 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>0.02835000</t>
+          <t>0.02777000</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.02732</v>
+        <v>0.02727</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E146" t="n">
@@ -5552,10 +5563,10 @@
         <v>0.03551</v>
       </c>
       <c r="G146" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H146" t="n">
-        <v>0.02732</v>
+        <v>0.02727</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -5571,15 +5582,15 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>1813.00000000</t>
+          <t>1798.00000000</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>19   2021-12-22</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E147" t="n">
@@ -5588,11 +5599,16 @@
       <c r="F147" t="n">
         <v>1869</v>
       </c>
-      <c r="G147" s="15" t="n">
+      <c r="G147" s="11" t="n">
         <v>3</v>
       </c>
       <c r="H147" t="n">
-        <v>1802</v>
+        <v>1772</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="148">
@@ -5603,15 +5619,15 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>58.98000000</t>
+          <t>61.25000000</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>55.92</v>
+        <v>54.79</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E148" t="n">
@@ -5621,10 +5637,10 @@
         <v>71.98999999999999</v>
       </c>
       <c r="G148" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H148" t="n">
-        <v>55.92</v>
+        <v>54.79</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -5640,7 +5656,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>33.50000000</t>
+          <t>33.05000000</t>
         </is>
       </c>
       <c r="C149" t="n">
@@ -5658,7 +5674,7 @@
         <v>41.94</v>
       </c>
       <c r="G149" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H149" t="n">
         <v>31.46</v>
@@ -5672,7 +5688,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>7.76600000</t>
+          <t>7.46700000</t>
         </is>
       </c>
       <c r="C150" t="n">
@@ -5690,10 +5706,10 @@
         <v>10.684</v>
       </c>
       <c r="G150" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H150" t="n">
-        <v>7.232</v>
+        <v>7.104</v>
       </c>
     </row>
     <row r="151">
@@ -5704,7 +5720,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2579.00000000</t>
+          <t>2661.00000000</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -5722,7 +5738,7 @@
         <v>3951</v>
       </c>
       <c r="G151" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H151" t="n">
         <v>2457</v>
@@ -5741,7 +5757,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>267.00000000</t>
+          <t>271.60000000</t>
         </is>
       </c>
       <c r="C152" t="n">
@@ -5759,7 +5775,7 @@
         <v>345</v>
       </c>
       <c r="G152" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H152" t="n">
         <v>254.9</v>
@@ -5778,7 +5794,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>213.16000000</t>
+          <t>213.75000000</t>
         </is>
       </c>
       <c r="C153" t="n">
@@ -5796,7 +5812,7 @@
         <v>284</v>
       </c>
       <c r="G153" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H153" t="n">
         <v>198.9</v>
@@ -5815,7 +5831,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>1.27600000</t>
+          <t>1.22900000</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -5833,10 +5849,10 @@
         <v>1.503</v>
       </c>
       <c r="G154" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H154" t="n">
-        <v>1.187</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="155">
@@ -5847,7 +5863,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>7.07100000</t>
+          <t>7.08900000</t>
         </is>
       </c>
       <c r="C155" t="n">
@@ -5868,7 +5884,7 @@
         <v>25</v>
       </c>
       <c r="H155" t="n">
-        <v>6.711</v>
+        <v>6.53</v>
       </c>
     </row>
     <row r="156">
@@ -5879,7 +5895,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>0.15100000</t>
+          <t>0.14480000</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5897,10 +5913,10 @@
         <v>0.1848</v>
       </c>
       <c r="G156" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H156" t="n">
-        <v>0.147</v>
+        <v>0.1402</v>
       </c>
     </row>
     <row r="157">
@@ -5911,7 +5927,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>10.54000000</t>
+          <t>9.88500000</t>
         </is>
       </c>
       <c r="C157" t="n">
@@ -5929,7 +5945,7 @@
         <v>12.806</v>
       </c>
       <c r="G157" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="H157" t="n">
         <v>8.757999999999999</v>
@@ -5943,7 +5959,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>1.46200000</t>
+          <t>1.42600000</t>
         </is>
       </c>
       <c r="C158" t="n">
@@ -5961,10 +5977,10 @@
         <v>1.81</v>
       </c>
       <c r="G158" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H158" t="n">
-        <v>1.38</v>
+        <v>1.366</v>
       </c>
     </row>
     <row r="159">
@@ -5975,15 +5991,15 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>14.15000000</t>
+          <t>13.78000000</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>13.67</v>
+        <v>13.5</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>19   2021-12-18</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E159" t="n">
@@ -5993,10 +6009,15 @@
         <v>18.68</v>
       </c>
       <c r="G159" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H159" t="n">
-        <v>14</v>
+        <v>13.5</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="160">
@@ -6007,7 +6028,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>1.11200000</t>
+          <t>1.12800000</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -6025,7 +6046,7 @@
         <v>1.88</v>
       </c>
       <c r="G160" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H160" t="n">
         <v>0.982</v>
@@ -6044,7 +6065,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>1.61620000</t>
+          <t>1.58450000</t>
         </is>
       </c>
       <c r="C161" t="n">
@@ -6061,8 +6082,8 @@
       <c r="F161" t="n">
         <v>1.7799</v>
       </c>
-      <c r="G161" s="15" t="n">
-        <v>10</v>
+      <c r="G161" s="11" t="n">
+        <v>12</v>
       </c>
       <c r="H161" t="n">
         <v>1.2554</v>
@@ -6076,7 +6097,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>17.02000000</t>
+          <t>17.09000000</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6097,7 +6118,7 @@
         <v>17</v>
       </c>
       <c r="H162" t="n">
-        <v>16.31</v>
+        <v>16.08</v>
       </c>
     </row>
     <row r="163">
@@ -6108,7 +6129,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>0.01536000</t>
+          <t>0.01516000</t>
         </is>
       </c>
       <c r="C163" t="n">
@@ -6126,7 +6147,7 @@
         <v>0.01988</v>
       </c>
       <c r="G163" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H163" t="n">
         <v>0.01458</v>
@@ -6145,15 +6166,15 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>0.35410000</t>
+          <t>0.34340000</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0.3402</v>
+        <v>0.3342</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E164" t="n">
@@ -6163,10 +6184,15 @@
         <v>0.5073</v>
       </c>
       <c r="G164" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H164" t="n">
-        <v>0.3434</v>
+        <v>0.3342</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="165">
@@ -6177,7 +6203,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>0.02038000</t>
+          <t>0.02108000</t>
         </is>
       </c>
       <c r="C165" t="n">
@@ -6195,7 +6221,7 @@
         <v>0.02759</v>
       </c>
       <c r="G165" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H165" t="n">
         <v>0.02</v>
@@ -6214,7 +6240,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>96.83000000</t>
+          <t>95.64000000</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6232,7 +6258,7 @@
         <v>127.32</v>
       </c>
       <c r="G166" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H166" t="n">
         <v>90.40000000000001</v>
@@ -6251,7 +6277,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>38.71000000</t>
+          <t>40.40000000</t>
         </is>
       </c>
       <c r="C167" t="n">
@@ -6268,11 +6294,11 @@
       <c r="F167" t="n">
         <v>45.16</v>
       </c>
-      <c r="G167" t="n">
-        <v>16</v>
+      <c r="G167" s="11" t="n">
+        <v>11</v>
       </c>
       <c r="H167" t="n">
-        <v>37</v>
+        <v>36.5</v>
       </c>
     </row>
     <row r="168">
@@ -6283,7 +6309,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>0.35350000</t>
+          <t>0.35060000</t>
         </is>
       </c>
       <c r="C168" t="n">
@@ -6301,10 +6327,10 @@
         <v>0.418</v>
       </c>
       <c r="G168" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H168" t="n">
-        <v>0.3381</v>
+        <v>0.3319</v>
       </c>
     </row>
     <row r="169">
@@ -6315,7 +6341,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>5.35500000</t>
+          <t>5.44700000</t>
         </is>
       </c>
       <c r="C169" t="n">
@@ -6333,10 +6359,10 @@
         <v>7.351</v>
       </c>
       <c r="G169" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H169" t="n">
-        <v>5.203</v>
+        <v>5.051</v>
       </c>
     </row>
     <row r="170">
@@ -6347,7 +6373,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>0.38220000</t>
+          <t>0.39090000</t>
         </is>
       </c>
       <c r="C170" t="n">
@@ -6365,10 +6391,10 @@
         <v>0.505</v>
       </c>
       <c r="G170" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H170" t="n">
-        <v>0.365</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="171">
@@ -6379,15 +6405,15 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>15.09000000</t>
+          <t>14.51000000</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>14.29</v>
+        <v>14</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E171" t="n">
@@ -6397,10 +6423,15 @@
         <v>17.98</v>
       </c>
       <c r="G171" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H171" t="n">
-        <v>14.9</v>
+        <v>14</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="172">
@@ -6411,15 +6442,15 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>0.62550000</t>
+          <t>0.60470000</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.5924</v>
+        <v>0.5867</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E172" t="n">
@@ -6429,10 +6460,10 @@
         <v>0.85</v>
       </c>
       <c r="G172" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H172" t="n">
-        <v>0.5924</v>
+        <v>0.5867</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -6448,7 +6479,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>230.70000000</t>
+          <t>223.30000000</t>
         </is>
       </c>
       <c r="C173" t="n">
@@ -6466,10 +6497,10 @@
         <v>296.8</v>
       </c>
       <c r="G173" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H173" t="n">
-        <v>214.9</v>
+        <v>214.3</v>
       </c>
     </row>
     <row r="174">
@@ -6480,7 +6511,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>15.43500000</t>
+          <t>15.92600000</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -6497,8 +6528,8 @@
       <c r="F174" t="n">
         <v>17.664</v>
       </c>
-      <c r="G174" s="15" t="n">
-        <v>14</v>
+      <c r="G174" s="11" t="n">
+        <v>10</v>
       </c>
       <c r="H174" t="n">
         <v>14</v>
@@ -6512,15 +6543,15 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>7.52700000</t>
+          <t>7.38000000</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7.4</v>
+        <v>7.078</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E175" t="n">
@@ -6530,10 +6561,10 @@
         <v>10.337</v>
       </c>
       <c r="G175" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H175" t="n">
-        <v>7.4</v>
+        <v>7.078</v>
       </c>
       <c r="I175" t="inlineStr">
         <is>
@@ -6549,7 +6580,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>1.45300000</t>
+          <t>1.46100000</t>
         </is>
       </c>
       <c r="C176" t="n">
@@ -6567,7 +6598,7 @@
         <v>2.131</v>
       </c>
       <c r="G176" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H176" t="n">
         <v>1.36</v>
@@ -6586,7 +6617,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>1.53700000</t>
+          <t>1.53600000</t>
         </is>
       </c>
       <c r="C177" t="n">
@@ -6623,7 +6654,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>0.02220000</t>
+          <t>0.02146000</t>
         </is>
       </c>
       <c r="C178" t="n">
@@ -6641,10 +6672,10 @@
         <v>0.02739</v>
       </c>
       <c r="G178" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H178" t="n">
-        <v>0.02119</v>
+        <v>0.02069</v>
       </c>
     </row>
     <row r="179">
@@ -6655,7 +6686,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>80.04000000</t>
+          <t>79.43000000</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -6673,7 +6704,7 @@
         <v>111.62</v>
       </c>
       <c r="G179" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H179" t="n">
         <v>75.13</v>
@@ -6692,7 +6723,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>0.76230000</t>
+          <t>0.75970000</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -6713,7 +6744,7 @@
         <v>82</v>
       </c>
       <c r="H180" t="n">
-        <v>0.7474</v>
+        <v>0.7337</v>
       </c>
     </row>
     <row r="181">
@@ -6724,7 +6755,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>0.12320000</t>
+          <t>0.12180000</t>
         </is>
       </c>
       <c r="C181" t="n">
@@ -6742,7 +6773,7 @@
         <v>0.1582</v>
       </c>
       <c r="G181" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H181" t="n">
         <v>0.1165</v>
@@ -6761,7 +6792,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>1.41400000</t>
+          <t>1.42000000</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -6779,10 +6810,10 @@
         <v>1.689</v>
       </c>
       <c r="G182" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H182" t="n">
-        <v>1.353</v>
+        <v>1.349</v>
       </c>
     </row>
     <row r="183">
@@ -6793,15 +6824,15 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>8.00300000</t>
+          <t>7.80900000</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>7.568</v>
+        <v>7.429</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E183" t="n">
@@ -6811,10 +6842,10 @@
         <v>10.148</v>
       </c>
       <c r="G183" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H183" t="n">
-        <v>7.568</v>
+        <v>7.429</v>
       </c>
       <c r="I183" t="inlineStr">
         <is>
@@ -6830,7 +6861,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>0.37682000</t>
+          <t>0.38700000</t>
         </is>
       </c>
       <c r="C184" t="n">
@@ -6848,7 +6879,7 @@
         <v>0.4546</v>
       </c>
       <c r="G184" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H184" t="n">
         <v>0.34111</v>
@@ -6862,15 +6893,15 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>1.67000000</t>
+          <t>1.68400000</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>1.619</v>
+        <v>1.588</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E185" t="n">
@@ -6880,10 +6911,10 @@
         <v>2.25</v>
       </c>
       <c r="G185" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H185" t="n">
-        <v>1.619</v>
+        <v>1.588</v>
       </c>
       <c r="I185" t="inlineStr">
         <is>
@@ -6899,7 +6930,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>0.12840000</t>
+          <t>0.12320000</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -6916,8 +6947,8 @@
       <c r="F186" t="n">
         <v>0.1439</v>
       </c>
-      <c r="G186" s="15" t="n">
-        <v>12</v>
+      <c r="G186" t="n">
+        <v>16</v>
       </c>
       <c r="H186" t="n">
         <v>0.1192</v>
@@ -6936,7 +6967,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>0.19040000</t>
+          <t>0.18770000</t>
         </is>
       </c>
       <c r="C187" t="n">
@@ -6954,7 +6985,7 @@
         <v>0.2605</v>
       </c>
       <c r="G187" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H187" t="n">
         <v>0.1801</v>
@@ -6990,7 +7021,7 @@
       <c r="F188" t="n">
         <v>1.028</v>
       </c>
-      <c r="G188" s="15" t="n">
+      <c r="G188" s="11" t="n">
         <v>2</v>
       </c>
       <c r="H188" t="n">
@@ -7005,7 +7036,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>0.63050000</t>
+          <t>0.64050000</t>
         </is>
       </c>
       <c r="C189" t="n">
@@ -7023,7 +7054,7 @@
         <v>0.777</v>
       </c>
       <c r="G189" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H189" t="n">
         <v>0.5971</v>
@@ -7037,7 +7068,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>8.10000000</t>
+          <t>8.20000000</t>
         </is>
       </c>
       <c r="C190" t="n">
@@ -7055,7 +7086,7 @@
         <v>10.98</v>
       </c>
       <c r="G190" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H190" t="n">
         <v>7.8</v>
@@ -7074,7 +7105,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>14.23000000</t>
+          <t>14.49000000</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7092,10 +7123,10 @@
         <v>18</v>
       </c>
       <c r="G191" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H191" t="n">
-        <v>14.11</v>
+        <v>14.01</v>
       </c>
     </row>
     <row r="192">
@@ -7106,7 +7137,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>0.01641000</t>
+          <t>0.01635000</t>
         </is>
       </c>
       <c r="C192" t="n">
@@ -7124,7 +7155,7 @@
         <v>0.0223</v>
       </c>
       <c r="G192" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H192" t="n">
         <v>0.01569</v>
@@ -7143,7 +7174,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>4.38500000</t>
+          <t>4.34800000</t>
         </is>
       </c>
       <c r="C193" t="n">
@@ -7161,10 +7192,10 @@
         <v>7.65</v>
       </c>
       <c r="G193" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H193" t="n">
-        <v>4.3</v>
+        <v>4.194</v>
       </c>
     </row>
     <row r="194">
@@ -7175,7 +7206,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>6.82000000</t>
+          <t>6.81000000</t>
         </is>
       </c>
       <c r="C194" t="n">
@@ -7196,7 +7227,7 @@
         <v>40</v>
       </c>
       <c r="H194" t="n">
-        <v>6.73</v>
+        <v>6.63</v>
       </c>
     </row>
     <row r="195">
@@ -7207,7 +7238,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>3.79000000</t>
+          <t>3.87300000</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -7225,7 +7256,7 @@
         <v>6.44</v>
       </c>
       <c r="G195" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H195" t="n">
         <v>3.65</v>
@@ -7239,7 +7270,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>5.17600000</t>
+          <t>4.96200000</t>
         </is>
       </c>
       <c r="C196" t="n">
@@ -7257,7 +7288,7 @@
         <v>6.05</v>
       </c>
       <c r="G196" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H196" t="n">
         <v>4.759</v>
@@ -7271,15 +7302,15 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>0.18160000</t>
+          <t>0.18150000</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0.1801</v>
+        <v>0.177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E197" t="n">
@@ -7292,7 +7323,7 @@
         <v>28</v>
       </c>
       <c r="H197" t="n">
-        <v>0.1801</v>
+        <v>0.177</v>
       </c>
       <c r="I197" t="inlineStr">
         <is>
@@ -7308,15 +7339,15 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>20.32000000</t>
+          <t>19.99000000</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>19.62</v>
+        <v>19.09</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E198" t="n">
@@ -7326,10 +7357,10 @@
         <v>27.71</v>
       </c>
       <c r="G198" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H198" t="n">
-        <v>19.62</v>
+        <v>19.09</v>
       </c>
       <c r="I198" t="inlineStr">
         <is>
@@ -7345,7 +7376,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>0.28300000</t>
+          <t>0.29260000</t>
         </is>
       </c>
       <c r="C199" t="n">
@@ -7363,10 +7394,10 @@
         <v>0.5555</v>
       </c>
       <c r="G199" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H199" t="n">
-        <v>0.275</v>
+        <v>0.2702</v>
       </c>
     </row>
     <row r="200">
@@ -7377,7 +7408,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>0.02049000</t>
+          <t>0.02167000</t>
         </is>
       </c>
       <c r="C200" t="n">
@@ -7394,11 +7425,11 @@
       <c r="F200" t="n">
         <v>0.0247</v>
       </c>
-      <c r="G200" t="n">
-        <v>20</v>
+      <c r="G200" s="11" t="n">
+        <v>13</v>
       </c>
       <c r="H200" t="n">
-        <v>0.02</v>
+        <v>0.01973</v>
       </c>
     </row>
     <row r="201">
@@ -7409,15 +7440,15 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>0.64840000</t>
+          <t>0.63960000</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.62</v>
+        <v>0.6113</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E201" t="n">
@@ -7427,10 +7458,10 @@
         <v>0.88</v>
       </c>
       <c r="G201" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H201" t="n">
-        <v>0.62</v>
+        <v>0.6113</v>
       </c>
       <c r="I201" t="inlineStr">
         <is>
@@ -7446,15 +7477,15 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>5.00100000</t>
+          <t>4.90800000</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>4.779</v>
+        <v>4.757</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E202" t="n">
@@ -7464,10 +7495,10 @@
         <v>7.226</v>
       </c>
       <c r="G202" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H202" t="n">
-        <v>4.779</v>
+        <v>4.757</v>
       </c>
       <c r="I202" t="inlineStr">
         <is>
@@ -7483,7 +7514,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2.85000000</t>
+          <t>2.79400000</t>
         </is>
       </c>
       <c r="C203" t="n">
@@ -7501,10 +7532,10 @@
         <v>3.494</v>
       </c>
       <c r="G203" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H203" t="n">
-        <v>2.72</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="204">
@@ -7515,15 +7546,15 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>1.23890000</t>
+          <t>1.21130000</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>1.163</v>
+        <v>1.1524</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E204" t="n">
@@ -7533,10 +7564,10 @@
         <v>1.8103</v>
       </c>
       <c r="G204" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H204" t="n">
-        <v>1.163</v>
+        <v>1.1524</v>
       </c>
       <c r="I204" t="inlineStr">
         <is>
@@ -7552,7 +7583,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>0.83000000</t>
+          <t>0.82300000</t>
         </is>
       </c>
       <c r="C205" t="n">
@@ -7570,10 +7601,10 @@
         <v>1.1</v>
       </c>
       <c r="G205" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H205" t="n">
-        <v>0.79</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="206">
@@ -7584,15 +7615,15 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>11.31000000</t>
+          <t>11.15000000</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E206" t="n">
@@ -7602,10 +7633,10 @@
         <v>13.37</v>
       </c>
       <c r="G206" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H206" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="I206" t="inlineStr">
         <is>
@@ -7621,7 +7652,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>4.79000000</t>
+          <t>4.79700000</t>
         </is>
       </c>
       <c r="C207" t="n">
@@ -7653,15 +7684,15 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>14.06000000</t>
+          <t>13.51000000</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>13.65</v>
+        <v>13.06</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E208" t="n">
@@ -7671,10 +7702,10 @@
         <v>19.77</v>
       </c>
       <c r="G208" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="H208" t="n">
-        <v>13.65</v>
+        <v>13.06</v>
       </c>
       <c r="I208" t="inlineStr">
         <is>
@@ -7690,15 +7721,15 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>1.11290000</t>
+          <t>1.09490000</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>1.061</v>
+        <v>1.0322</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>19   2021-12-18</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E209" t="n">
@@ -7708,10 +7739,15 @@
         <v>1.6486</v>
       </c>
       <c r="G209" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H209" t="n">
-        <v>1.07</v>
+        <v>1.0322</v>
+      </c>
+      <c r="I209" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -7722,15 +7758,15 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>0.13770000</t>
+          <t>0.13740000</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.137</v>
+        <v>0.1332</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E210" t="n">
@@ -7743,7 +7779,7 @@
         <v>51</v>
       </c>
       <c r="H210" t="n">
-        <v>0.137</v>
+        <v>0.1332</v>
       </c>
       <c r="I210" t="inlineStr">
         <is>
@@ -7759,7 +7795,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>0.06247000</t>
+          <t>0.06028000</t>
         </is>
       </c>
       <c r="C211" t="n">
@@ -7777,10 +7813,10 @@
         <v>0.08883000000000001</v>
       </c>
       <c r="G211" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H211" t="n">
-        <v>0.06112</v>
+        <v>0.05878</v>
       </c>
     </row>
     <row r="212">
@@ -7791,7 +7827,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>5.61000000</t>
+          <t>5.68000000</t>
         </is>
       </c>
       <c r="C212" t="n">
@@ -7809,7 +7845,7 @@
         <v>7.65</v>
       </c>
       <c r="G212" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H212" t="n">
         <v>5.31</v>
@@ -7828,7 +7864,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>12.17000000</t>
+          <t>12.13000000</t>
         </is>
       </c>
       <c r="C213" t="n">
@@ -7860,7 +7896,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>0.04311000</t>
+          <t>0.04210000</t>
         </is>
       </c>
       <c r="C214" t="n">
@@ -7878,7 +7914,7 @@
         <v>0.055</v>
       </c>
       <c r="G214" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H214" t="n">
         <v>0.04018</v>
@@ -7892,15 +7928,15 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>9.18000000</t>
+          <t>8.57000000</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>8.5</v>
+        <v>8.15</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>19   2021-12-29</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E215" t="n">
@@ -7909,11 +7945,16 @@
       <c r="F215" t="n">
         <v>10.29</v>
       </c>
-      <c r="G215" s="15" t="n">
-        <v>12</v>
+      <c r="G215" t="n">
+        <v>20</v>
       </c>
       <c r="H215" t="n">
-        <v>8.73</v>
+        <v>8.15</v>
+      </c>
+      <c r="I215" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="216">
@@ -7924,15 +7965,15 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>0.17310000</t>
+          <t>0.16930000</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>0.1674</v>
+        <v>0.1639</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E216" t="n">
@@ -7942,10 +7983,10 @@
         <v>0.239</v>
       </c>
       <c r="G216" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="H216" t="n">
-        <v>0.1674</v>
+        <v>0.1639</v>
       </c>
       <c r="I216" t="inlineStr">
         <is>
@@ -7961,15 +8002,15 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>1.10460000</t>
+          <t>1.11070000</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1.0581</v>
+        <v>0.982</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E217" t="n">
@@ -7979,10 +8020,10 @@
         <v>1.44</v>
       </c>
       <c r="G217" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H217" t="n">
-        <v>1.0581</v>
+        <v>0.982</v>
       </c>
       <c r="I217" t="inlineStr">
         <is>
@@ -7998,15 +8039,15 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>0.19780000</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.19</v>
+        <v>0.1887</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E218" t="n">
@@ -8016,10 +8057,10 @@
         <v>0.3043</v>
       </c>
       <c r="G218" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H218" t="n">
-        <v>0.19</v>
+        <v>0.1887</v>
       </c>
       <c r="I218" t="inlineStr">
         <is>
@@ -8035,15 +8076,15 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>0.26100000</t>
+          <t>0.25080000</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>0.2407</v>
+        <v>0.24</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E219" t="n">
@@ -8053,10 +8094,15 @@
         <v>0.3576</v>
       </c>
       <c r="G219" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H219" t="n">
-        <v>0.2511</v>
+        <v>0.24</v>
+      </c>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="220">
@@ -8067,7 +8113,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>592.70000000</t>
+          <t>590.80000000</t>
         </is>
       </c>
       <c r="C220" t="n">
@@ -8085,10 +8131,10 @@
         <v>810</v>
       </c>
       <c r="G220" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H220" t="n">
-        <v>570</v>
+        <v>563.3</v>
       </c>
     </row>
     <row r="221">
@@ -8099,15 +8145,15 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>1.18400000</t>
+          <t>1.16500000</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>1.15</v>
+        <v>1.129</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E221" t="n">
@@ -8117,10 +8163,10 @@
         <v>1.58</v>
       </c>
       <c r="G221" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H221" t="n">
-        <v>1.15</v>
+        <v>1.129</v>
       </c>
       <c r="I221" t="inlineStr">
         <is>
@@ -8136,15 +8182,15 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>0.98100000</t>
+          <t>0.97400000</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0.955</v>
+        <v>0.944</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E222" t="n">
@@ -8154,10 +8200,10 @@
         <v>1.26</v>
       </c>
       <c r="G222" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H222" t="n">
-        <v>0.955</v>
+        <v>0.944</v>
       </c>
       <c r="I222" t="inlineStr">
         <is>
@@ -8173,7 +8219,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>0.19060000</t>
+          <t>0.19300000</t>
         </is>
       </c>
       <c r="C223" t="n">
@@ -8191,7 +8237,7 @@
         <v>0.2649</v>
       </c>
       <c r="G223" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H223" t="n">
         <v>0.1752</v>
@@ -8210,15 +8256,15 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>39.31000000</t>
+          <t>38.36000000</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>37.7</v>
+        <v>37.51</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E224" t="n">
@@ -8228,10 +8274,10 @@
         <v>49</v>
       </c>
       <c r="G224" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H224" t="n">
-        <v>37.7</v>
+        <v>37.51</v>
       </c>
       <c r="I224" t="inlineStr">
         <is>
@@ -8247,15 +8293,15 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2.08000000</t>
+          <t>2.02900000</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>2.05</v>
+        <v>1.997</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E225" t="n">
@@ -8265,10 +8311,10 @@
         <v>2.754</v>
       </c>
       <c r="G225" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H225" t="n">
-        <v>2.05</v>
+        <v>1.997</v>
       </c>
       <c r="I225" t="inlineStr">
         <is>
@@ -8284,7 +8330,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>8.16000000</t>
+          <t>8.25000000</t>
         </is>
       </c>
       <c r="C226" t="n">
@@ -8302,7 +8348,7 @@
         <v>11.01</v>
       </c>
       <c r="G226" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H226" t="n">
         <v>7.94</v>
@@ -8316,15 +8362,15 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>8.99000000</t>
+          <t>8.62000000</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>8.57</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E227" t="n">
@@ -8334,10 +8380,10 @@
         <v>12.8</v>
       </c>
       <c r="G227" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H227" t="n">
-        <v>8.57</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I227" t="inlineStr">
         <is>
@@ -8353,7 +8399,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>1.05700000</t>
+          <t>1.05600000</t>
         </is>
       </c>
       <c r="C228" t="n">
@@ -8371,10 +8417,10 @@
         <v>1.32</v>
       </c>
       <c r="G228" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H228" t="n">
-        <v>1.017</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="229">
@@ -8385,15 +8431,15 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2.75200000</t>
+          <t>2.67800000</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>2.634</v>
+        <v>2.575</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E229" t="n">
@@ -8403,10 +8449,10 @@
         <v>3.5</v>
       </c>
       <c r="G229" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H229" t="n">
-        <v>2.634</v>
+        <v>2.575</v>
       </c>
       <c r="I229" t="inlineStr">
         <is>
@@ -8422,15 +8468,15 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>0.02380000</t>
+          <t>0.02250000</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>0.023</v>
+        <v>0.0213</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E230" t="n">
@@ -8440,10 +8486,10 @@
         <v>0.0335</v>
       </c>
       <c r="G230" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="H230" t="n">
-        <v>0.023</v>
+        <v>0.0213</v>
       </c>
       <c r="I230" t="inlineStr">
         <is>
@@ -8459,7 +8505,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>0.00003023</t>
+          <t>0.00003088</t>
         </is>
       </c>
       <c r="C231" t="n">
@@ -8477,7 +8523,7 @@
         <v>3.987e-05</v>
       </c>
       <c r="G231" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H231" t="n">
         <v>2.858e-05</v>
@@ -8491,7 +8537,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>31.12000000</t>
+          <t>30.81000000</t>
         </is>
       </c>
       <c r="C232" t="n">
@@ -8509,7 +8555,7 @@
         <v>38.02</v>
       </c>
       <c r="G232" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H232" t="n">
         <v>27.81</v>
@@ -8523,7 +8569,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>56.19000000</t>
+          <t>55.23000000</t>
         </is>
       </c>
       <c r="C233" t="n">
@@ -8541,10 +8587,10 @@
         <v>69</v>
       </c>
       <c r="G233" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H233" t="n">
-        <v>53</v>
+        <v>52.79</v>
       </c>
     </row>
     <row r="234">
@@ -8555,15 +8601,15 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2.60800000</t>
+          <t>2.57000000</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>2.5</v>
+        <v>2.461</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E234" t="n">
@@ -8573,10 +8619,15 @@
         <v>3.2</v>
       </c>
       <c r="G234" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H234" t="n">
-        <v>2.54</v>
+        <v>2.461</v>
+      </c>
+      <c r="I234" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -8587,11 +8638,11 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>0.34900000</t>
+          <t>0.34600000</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>0.347</v>
+        <v>0.332</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -8605,10 +8656,10 @@
         <v>0.487</v>
       </c>
       <c r="G235" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H235" t="n">
-        <v>0.347</v>
+        <v>0.332</v>
       </c>
       <c r="I235" t="inlineStr">
         <is>
@@ -8624,7 +8675,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>11.23800000</t>
+          <t>10.91700000</t>
         </is>
       </c>
       <c r="C236" t="n">
@@ -8642,7 +8693,7 @@
         <v>14.301</v>
       </c>
       <c r="G236" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H236" t="n">
         <v>10.4</v>
@@ -8656,7 +8707,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>44.66000000</t>
+          <t>41.89000000</t>
         </is>
       </c>
       <c r="C237" t="n">
@@ -8674,7 +8725,7 @@
         <v>57.27</v>
       </c>
       <c r="G237" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H237" t="n">
         <v>39.66</v>
@@ -8688,15 +8739,15 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>0.68690000</t>
+          <t>0.67260000</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.6512</v>
+        <v>0.6474</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E238" t="n">
@@ -8706,10 +8757,10 @@
         <v>0.8426</v>
       </c>
       <c r="G238" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H238" t="n">
-        <v>0.6512</v>
+        <v>0.6474</v>
       </c>
       <c r="I238" t="inlineStr">
         <is>
@@ -8725,7 +8776,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>0.01593000</t>
+          <t>0.01575000</t>
         </is>
       </c>
       <c r="C239" t="n">
@@ -8743,7 +8794,7 @@
         <v>0.02014</v>
       </c>
       <c r="G239" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H239" t="n">
         <v>0.01525</v>
@@ -8762,7 +8813,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>0.61500000</t>
+          <t>0.59290000</t>
         </is>
       </c>
       <c r="C240" t="n">
@@ -8780,10 +8831,10 @@
         <v>0.785</v>
       </c>
       <c r="G240" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H240" t="n">
-        <v>0.581</v>
+        <v>0.5708</v>
       </c>
     </row>
     <row r="241">
@@ -8794,7 +8845,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>13.32300000</t>
+          <t>13.03900000</t>
         </is>
       </c>
       <c r="C241" t="n">
@@ -8812,7 +8863,7 @@
         <v>19.5</v>
       </c>
       <c r="G241" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H241" t="n">
         <v>12.408</v>
@@ -8826,15 +8877,15 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>32.87000000</t>
+          <t>32.31000000</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>31.58</v>
+        <v>30.46</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E242" t="n">
@@ -8844,10 +8895,10 @@
         <v>46.72</v>
       </c>
       <c r="G242" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H242" t="n">
-        <v>31.58</v>
+        <v>30.46</v>
       </c>
       <c r="I242" t="inlineStr">
         <is>
@@ -8863,7 +8914,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>0.77990000</t>
+          <t>0.72660000</t>
         </is>
       </c>
       <c r="C243" t="n">
@@ -8881,10 +8932,10 @@
         <v>0.923</v>
       </c>
       <c r="G243" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H243" t="n">
-        <v>0.7371</v>
+        <v>0.6993</v>
       </c>
     </row>
     <row r="244">
@@ -8895,7 +8946,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>10.07700000</t>
+          <t>9.31800000</t>
         </is>
       </c>
       <c r="C244" t="n">
@@ -8913,10 +8964,10 @@
         <v>11.9</v>
       </c>
       <c r="G244" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="H244" t="n">
-        <v>9.391</v>
+        <v>9.127000000000001</v>
       </c>
     </row>
     <row r="245">
@@ -8927,7 +8978,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>1.35600000</t>
+          <t>1.34700000</t>
         </is>
       </c>
       <c r="C245" t="n">
@@ -8945,10 +8996,10 @@
         <v>1.6</v>
       </c>
       <c r="G245" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H245" t="n">
-        <v>1.294</v>
+        <v>1.285</v>
       </c>
     </row>
     <row r="246">
@@ -8959,7 +9010,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>0.39330000</t>
+          <t>0.38780000</t>
         </is>
       </c>
       <c r="C246" t="n">
@@ -8977,10 +9028,10 @@
         <v>0.66</v>
       </c>
       <c r="G246" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H246" t="n">
-        <v>0.3807</v>
+        <v>0.3717</v>
       </c>
     </row>
     <row r="247">
@@ -8991,7 +9042,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>16.50000000</t>
+          <t>16.53000000</t>
         </is>
       </c>
       <c r="C247" t="n">
@@ -9009,10 +9060,10 @@
         <v>23.43</v>
       </c>
       <c r="G247" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H247" t="n">
-        <v>16.4</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="248">
@@ -9023,7 +9074,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>86.30000000</t>
+          <t>83.20000000</t>
         </is>
       </c>
       <c r="C248" t="n">
@@ -9041,10 +9092,10 @@
         <v>131.9</v>
       </c>
       <c r="G248" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H248" t="n">
-        <v>85.90000000000001</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="249">
@@ -9055,15 +9106,15 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>10.73000000</t>
+          <t>10.33000000</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>10.49</v>
+        <v>9.93</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E249" t="n">
@@ -9073,10 +9124,10 @@
         <v>14.95</v>
       </c>
       <c r="G249" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="H249" t="n">
-        <v>10.49</v>
+        <v>9.93</v>
       </c>
       <c r="I249" t="inlineStr">
         <is>
@@ -9092,7 +9143,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2.44200000</t>
+          <t>2.41500000</t>
         </is>
       </c>
       <c r="C250" t="n">
@@ -9110,7 +9161,7 @@
         <v>2.985</v>
       </c>
       <c r="G250" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H250" t="n">
         <v>2.3</v>
@@ -9124,15 +9175,15 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>0.62800000</t>
+          <t>0.64000000</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>0.618</v>
+        <v>0.594</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E251" t="n">
@@ -9142,10 +9193,10 @@
         <v>0.867</v>
       </c>
       <c r="G251" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H251" t="n">
-        <v>0.618</v>
+        <v>0.594</v>
       </c>
       <c r="I251" t="inlineStr">
         <is>
@@ -9161,15 +9212,15 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>166.60000000</t>
+          <t>179.50000000</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>162</v>
+        <v>156.8</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E252" t="n">
@@ -9179,10 +9230,10 @@
         <v>209.3</v>
       </c>
       <c r="G252" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H252" t="n">
-        <v>162</v>
+        <v>156.8</v>
       </c>
       <c r="I252" t="inlineStr">
         <is>
@@ -9198,7 +9249,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>8.39000000</t>
+          <t>8.30000000</t>
         </is>
       </c>
       <c r="C253" t="n">
@@ -9215,11 +9266,11 @@
       <c r="F253" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="G253" s="15" t="n">
-        <v>15</v>
+      <c r="G253" t="n">
+        <v>16</v>
       </c>
       <c r="H253" t="n">
-        <v>8.27</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="254">
@@ -9230,15 +9281,15 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>0.19000000</t>
+          <t>0.18650000</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>0.1801</v>
+        <v>0.1791</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E254" t="n">
@@ -9248,10 +9299,10 @@
         <v>0.2512</v>
       </c>
       <c r="G254" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H254" t="n">
-        <v>0.1801</v>
+        <v>0.1791</v>
       </c>
       <c r="I254" t="inlineStr">
         <is>
@@ -9267,7 +9318,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>3.93600000</t>
+          <t>3.67300000</t>
         </is>
       </c>
       <c r="C255" t="n">
@@ -9284,8 +9335,8 @@
       <c r="F255" t="n">
         <v>4.248</v>
       </c>
-      <c r="G255" s="15" t="n">
-        <v>7</v>
+      <c r="G255" s="11" t="n">
+        <v>15</v>
       </c>
       <c r="H255" t="n">
         <v>3.418</v>
@@ -9299,7 +9350,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>6.03600000</t>
+          <t>5.87000000</t>
         </is>
       </c>
       <c r="C256" t="n">
@@ -9317,7 +9368,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="G256" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H256" t="n">
         <v>5.695</v>
@@ -9336,7 +9387,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>151.80000000</t>
+          <t>157.20000000</t>
         </is>
       </c>
       <c r="C257" t="n">
@@ -9354,10 +9405,10 @@
         <v>285</v>
       </c>
       <c r="G257" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H257" t="n">
-        <v>142.9</v>
+        <v>142</v>
       </c>
     </row>
     <row r="258">
@@ -9368,7 +9419,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>0.56530000</t>
+          <t>0.56010000</t>
         </is>
       </c>
       <c r="C258" t="n">
@@ -9386,10 +9437,10 @@
         <v>0.8189</v>
       </c>
       <c r="G258" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H258" t="n">
-        <v>0.5507</v>
+        <v>0.5411</v>
       </c>
     </row>
     <row r="259">
@@ -9400,7 +9451,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>285.90000000</t>
+          <t>316.00000000</t>
         </is>
       </c>
       <c r="C259" t="n">
@@ -9418,7 +9469,7 @@
         <v>570</v>
       </c>
       <c r="G259" t="n">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="H259" t="n">
         <v>273.1</v>
@@ -9432,15 +9483,15 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>4.54400000</t>
+          <t>4.52700000</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>4.4</v>
+        <v>4.201</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E260" t="n">
@@ -9453,7 +9504,7 @@
         <v>46</v>
       </c>
       <c r="H260" t="n">
-        <v>4.4</v>
+        <v>4.201</v>
       </c>
       <c r="I260" t="inlineStr">
         <is>
@@ -9501,15 +9552,15 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>0.32640000</t>
+          <t>0.31610000</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>0.314</v>
+        <v>0.3046</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E262" t="n">
@@ -9519,10 +9570,10 @@
         <v>0.452</v>
       </c>
       <c r="G262" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H262" t="n">
-        <v>0.314</v>
+        <v>0.3046</v>
       </c>
       <c r="I262" t="inlineStr">
         <is>
@@ -9538,15 +9589,15 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2.24500000</t>
+          <t>2.21600000</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>2.243</v>
+        <v>2.202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E263" t="n">
@@ -9555,11 +9606,11 @@
       <c r="F263" t="n">
         <v>2.448</v>
       </c>
-      <c r="G263" s="15" t="n">
-        <v>9</v>
+      <c r="G263" s="11" t="n">
+        <v>10</v>
       </c>
       <c r="H263" t="n">
-        <v>2.243</v>
+        <v>2.202</v>
       </c>
       <c r="I263" t="inlineStr">
         <is>
@@ -9575,7 +9626,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>0.43610000</t>
+          <t>0.44100000</t>
         </is>
       </c>
       <c r="C264" t="n">
@@ -9593,7 +9644,7 @@
         <v>0.526</v>
       </c>
       <c r="G264" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H264" t="n">
         <v>0.413</v>
@@ -9612,7 +9663,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>0.91820000</t>
+          <t>0.89640000</t>
         </is>
       </c>
       <c r="C265" t="n">
@@ -9630,10 +9681,10 @@
         <v>1.12</v>
       </c>
       <c r="G265" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H265" t="n">
-        <v>0.9091</v>
+        <v>0.8881</v>
       </c>
     </row>
     <row r="266">
@@ -9644,7 +9695,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>482.80000000</t>
+          <t>479.00000000</t>
         </is>
       </c>
       <c r="C266" t="n">
@@ -9662,10 +9713,10 @@
         <v>598</v>
       </c>
       <c r="G266" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H266" t="n">
-        <v>480.7</v>
+        <v>466.9</v>
       </c>
     </row>
     <row r="267">
@@ -9676,7 +9727,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>0.00010604</t>
+          <t>0.00010358</t>
         </is>
       </c>
       <c r="C267" t="n">
@@ -9694,10 +9745,10 @@
         <v>0.00012747</v>
       </c>
       <c r="G267" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H267" t="n">
-        <v>0.00010034</v>
+        <v>9.975e-05</v>
       </c>
     </row>
     <row r="268">
@@ -9708,7 +9759,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>0.43370000</t>
+          <t>0.42320000</t>
         </is>
       </c>
       <c r="C268" t="n">
@@ -9726,10 +9777,10 @@
         <v>0.594</v>
       </c>
       <c r="G268" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="H268" t="n">
-        <v>0.4143</v>
+        <v>0.4083</v>
       </c>
     </row>
     <row r="269">
@@ -9740,7 +9791,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>7.78700000</t>
+          <t>7.69000000</t>
         </is>
       </c>
       <c r="C269" t="n">
@@ -9758,10 +9809,10 @@
         <v>10.73</v>
       </c>
       <c r="G269" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H269" t="n">
-        <v>7.333</v>
+        <v>7.251</v>
       </c>
     </row>
     <row r="270">
@@ -9772,7 +9823,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>0.51060000</t>
+          <t>0.49570000</t>
         </is>
       </c>
       <c r="C270" t="n">
@@ -9790,10 +9841,10 @@
         <v>0.66</v>
       </c>
       <c r="G270" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H270" t="n">
-        <v>0.4739</v>
+        <v>0.4692</v>
       </c>
     </row>
     <row r="271">
@@ -9804,15 +9855,15 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>0.23299000</t>
+          <t>0.22684000</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>0.2261</v>
+        <v>0.2186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E271" t="n">
@@ -9822,10 +9873,10 @@
         <v>0.29695</v>
       </c>
       <c r="G271" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H271" t="n">
-        <v>0.2261</v>
+        <v>0.2186</v>
       </c>
       <c r="I271" t="inlineStr">
         <is>
@@ -9841,7 +9892,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>0.83200000</t>
+          <t>0.81270000</t>
         </is>
       </c>
       <c r="C272" t="n">
@@ -9859,10 +9910,10 @@
         <v>0.9686</v>
       </c>
       <c r="G272" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H272" t="n">
-        <v>0.7868000000000001</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="273">
@@ -9873,7 +9924,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>1.00010000</t>
+          <t>1.00020000</t>
         </is>
       </c>
       <c r="C273" t="n">
@@ -9890,7 +9941,7 @@
       <c r="F273" t="n">
         <v>1.0022</v>
       </c>
-      <c r="G273" s="15" t="n">
+      <c r="G273" s="11" t="n">
         <v>0</v>
       </c>
       <c r="H273" t="n">
@@ -9905,7 +9956,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>0.37617000</t>
+          <t>0.38627000</t>
         </is>
       </c>
       <c r="C274" t="n">
@@ -9923,7 +9974,7 @@
         <v>0.55359</v>
       </c>
       <c r="G274" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H274" t="n">
         <v>0.34117</v>
@@ -9942,15 +9993,15 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>885.70000000</t>
+          <t>868.00000000</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>870.8</v>
+        <v>836.1</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E275" t="n">
@@ -9960,10 +10011,10 @@
         <v>1367.7</v>
       </c>
       <c r="G275" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H275" t="n">
-        <v>870.8</v>
+        <v>836.1</v>
       </c>
       <c r="I275" t="inlineStr">
         <is>
@@ -9979,7 +10030,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>4.71400000</t>
+          <t>4.78000000</t>
         </is>
       </c>
       <c r="C276" t="n">
@@ -9997,7 +10048,7 @@
         <v>6.349</v>
       </c>
       <c r="G276" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H276" t="n">
         <v>4.439</v>
@@ -10016,7 +10067,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>1.01850000</t>
+          <t>1.06000000</t>
         </is>
       </c>
       <c r="C277" t="n">
@@ -10034,7 +10085,7 @@
         <v>1.33</v>
       </c>
       <c r="G277" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H277" t="n">
         <v>0.957</v>
@@ -10048,7 +10099,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>0.11620000</t>
+          <t>0.11400000</t>
         </is>
       </c>
       <c r="C278" t="n">
@@ -10066,10 +10117,10 @@
         <v>0.171</v>
       </c>
       <c r="G278" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H278" t="n">
-        <v>0.1144</v>
+        <v>0.1108</v>
       </c>
     </row>
     <row r="279">
@@ -10080,15 +10131,15 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>3.21400000</t>
+          <t>3.04700000</t>
         </is>
       </c>
       <c r="C279" t="n">
-        <v>3.084</v>
+        <v>2.952</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E279" t="n">
@@ -10098,10 +10149,10 @@
         <v>5.982</v>
       </c>
       <c r="G279" t="n">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="H279" t="n">
-        <v>3.084</v>
+        <v>2.952</v>
       </c>
       <c r="I279" t="inlineStr">
         <is>
@@ -10117,15 +10168,15 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>0.64780000</t>
+          <t>0.64600000</t>
         </is>
       </c>
       <c r="C280" t="n">
-        <v>0.6204</v>
+        <v>0.6111</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>19   2021-12-18</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E280" t="n">
@@ -10138,7 +10189,12 @@
         <v>75</v>
       </c>
       <c r="H280" t="n">
-        <v>0.633</v>
+        <v>0.6111</v>
+      </c>
+      <c r="I280" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="281">
@@ -10149,7 +10205,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1.38800000</t>
+          <t>1.36000000</t>
         </is>
       </c>
       <c r="C281" t="n">
@@ -10167,10 +10223,10 @@
         <v>2.086</v>
       </c>
       <c r="G281" t="n">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H281" t="n">
-        <v>1.351</v>
+        <v>1.312</v>
       </c>
     </row>
     <row r="282">
@@ -10181,7 +10237,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>1.55600000</t>
+          <t>1.65300000</t>
         </is>
       </c>
       <c r="C282" t="n">
@@ -10199,7 +10255,7 @@
         <v>2.4</v>
       </c>
       <c r="G282" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="H282" t="n">
         <v>1.49</v>
@@ -10213,7 +10269,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>10.00800000</t>
+          <t>9.73700000</t>
         </is>
       </c>
       <c r="C283" t="n">
@@ -10231,10 +10287,10 @@
         <v>12.3</v>
       </c>
       <c r="G283" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H283" t="n">
-        <v>9.814</v>
+        <v>9.446</v>
       </c>
     </row>
     <row r="284">
@@ -10245,15 +10301,15 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>0.56894000</t>
+          <t>0.54768000</t>
         </is>
       </c>
       <c r="C284" t="n">
-        <v>0.55642</v>
+        <v>0.52436</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E284" t="n">
@@ -10263,10 +10319,10 @@
         <v>0.82866</v>
       </c>
       <c r="G284" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H284" t="n">
-        <v>0.55642</v>
+        <v>0.52436</v>
       </c>
       <c r="I284" t="inlineStr">
         <is>
@@ -10282,7 +10338,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>0.97800000</t>
+          <t>0.96000000</t>
         </is>
       </c>
       <c r="C285" t="n">
@@ -10300,10 +10356,10 @@
         <v>1.346</v>
       </c>
       <c r="G285" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H285" t="n">
-        <v>0.926</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="286">
@@ -10314,15 +10370,15 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>4.32360000</t>
+          <t>4.38290000</t>
         </is>
       </c>
       <c r="C286" t="n">
-        <v>4.1503</v>
+        <v>4.0482</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E286" t="n">
@@ -10332,10 +10388,10 @@
         <v>6</v>
       </c>
       <c r="G286" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H286" t="n">
-        <v>4.1503</v>
+        <v>4.0482</v>
       </c>
       <c r="I286" t="inlineStr">
         <is>
@@ -10351,7 +10407,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2.03200000</t>
+          <t>1.94100000</t>
         </is>
       </c>
       <c r="C287" t="n">
@@ -10369,10 +10425,10 @@
         <v>2.764</v>
       </c>
       <c r="G287" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H287" t="n">
-        <v>1.938</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="288">
@@ -10383,15 +10439,15 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>0.52720000</t>
+          <t>0.52360000</t>
         </is>
       </c>
       <c r="C288" t="n">
-        <v>0.5142</v>
+        <v>0.5087</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E288" t="n">
@@ -10401,10 +10457,10 @@
         <v>0.6896</v>
       </c>
       <c r="G288" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H288" t="n">
-        <v>0.5142</v>
+        <v>0.5087</v>
       </c>
       <c r="I288" t="inlineStr">
         <is>
@@ -10420,15 +10476,15 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>22.52000000</t>
+          <t>22.37000000</t>
         </is>
       </c>
       <c r="C289" t="n">
-        <v>22.08</v>
+        <v>21.54</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E289" t="n">
@@ -10438,10 +10494,10 @@
         <v>28.75</v>
       </c>
       <c r="G289" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H289" t="n">
-        <v>22.08</v>
+        <v>21.54</v>
       </c>
       <c r="I289" t="inlineStr">
         <is>
@@ -10457,15 +10513,15 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>1.98221000</t>
+          <t>1.92826000</t>
         </is>
       </c>
       <c r="C290" t="n">
-        <v>1.88911</v>
+        <v>1.8463</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
-          <t>19   2021-12-19</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E290" t="n">
@@ -10475,10 +10531,15 @@
         <v>2.7542</v>
       </c>
       <c r="G290" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="H290" t="n">
-        <v>1.92127</v>
+        <v>1.8463</v>
+      </c>
+      <c r="I290" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
     </row>
     <row r="291">
@@ -10489,15 +10550,15 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>43.50000000</t>
+          <t>41.70000000</t>
         </is>
       </c>
       <c r="C291" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E291" t="n">
@@ -10507,10 +10568,10 @@
         <v>85.09999999999999</v>
       </c>
       <c r="G291" t="n">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="H291" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="I291" t="inlineStr">
         <is>
@@ -10526,7 +10587,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>24.57000000</t>
+          <t>25.05000000</t>
         </is>
       </c>
       <c r="C292" t="n">
@@ -10544,10 +10605,10 @@
         <v>33</v>
       </c>
       <c r="G292" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H292" t="n">
-        <v>24</v>
+        <v>23.53</v>
       </c>
     </row>
     <row r="293">
@@ -10558,7 +10619,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>200.50000000</t>
+          <t>186.50000000</t>
         </is>
       </c>
       <c r="C293" t="n">
@@ -10576,10 +10637,10 @@
         <v>240</v>
       </c>
       <c r="G293" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="H293" t="n">
-        <v>184.4</v>
+        <v>175.6</v>
       </c>
     </row>
     <row r="294">
@@ -10590,7 +10651,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>9.97000000</t>
+          <t>10.06000000</t>
         </is>
       </c>
       <c r="C294" t="n">
@@ -10608,7 +10669,7 @@
         <v>12</v>
       </c>
       <c r="G294" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H294" t="n">
         <v>9.69</v>
@@ -10622,7 +10683,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>33.93000000</t>
+          <t>33.42000000</t>
         </is>
       </c>
       <c r="C295" t="n">
@@ -10640,7 +10701,7 @@
         <v>49.8</v>
       </c>
       <c r="G295" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="H295" t="n">
         <v>31.41</v>
@@ -10659,7 +10720,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>1066.57000000</t>
+          <t>1307.29000000</t>
         </is>
       </c>
       <c r="C296" t="n">
@@ -10676,8 +10737,8 @@
       <c r="F296" t="n">
         <v>1385</v>
       </c>
-      <c r="G296" t="n">
-        <v>29</v>
+      <c r="G296" s="11" t="n">
+        <v>5</v>
       </c>
       <c r="H296" t="n">
         <v>980.9299999999999</v>
@@ -10691,7 +10752,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>0.12180000</t>
+          <t>0.12010000</t>
         </is>
       </c>
       <c r="C297" t="n">
@@ -10709,7 +10770,7 @@
         <v>0.1937</v>
       </c>
       <c r="G297" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H297" t="n">
         <v>0.1132</v>
@@ -10728,15 +10789,15 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2.85020000</t>
+          <t>3.01530000</t>
         </is>
       </c>
       <c r="C298" t="n">
-        <v>2.81</v>
+        <v>2.8041</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>19   2021-12-20</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E298" t="n">
@@ -10746,10 +10807,10 @@
         <v>3.9328</v>
       </c>
       <c r="G298" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H298" t="n">
-        <v>2.81</v>
+        <v>2.8041</v>
       </c>
       <c r="I298" t="inlineStr">
         <is>
@@ -10765,7 +10826,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>0.56640000</t>
+          <t>0.54240000</t>
         </is>
       </c>
       <c r="C299" t="n">
@@ -10783,10 +10844,10 @@
         <v>0.847</v>
       </c>
       <c r="G299" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="H299" t="n">
-        <v>0.5202</v>
+        <v>0.5115</v>
       </c>
     </row>
     <row r="300">
@@ -10797,15 +10858,15 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2.75800000</t>
+          <t>2.78300000</t>
         </is>
       </c>
       <c r="C300" t="n">
-        <v>2.62</v>
+        <v>2.588</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E300" t="n">
@@ -10815,10 +10876,10 @@
         <v>3.856</v>
       </c>
       <c r="G300" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H300" t="n">
-        <v>2.62</v>
+        <v>2.588</v>
       </c>
       <c r="I300" t="inlineStr">
         <is>
@@ -10866,15 +10927,15 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>0.04710000</t>
+          <t>0.04620000</t>
         </is>
       </c>
       <c r="C302" t="n">
-        <v>0.04479</v>
+        <v>0.0445</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E302" t="n">
@@ -10884,10 +10945,10 @@
         <v>0.05975</v>
       </c>
       <c r="G302" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H302" t="n">
-        <v>0.04479</v>
+        <v>0.0445</v>
       </c>
       <c r="I302" t="inlineStr">
         <is>
@@ -10903,15 +10964,15 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>1.32500000</t>
+          <t>1.29200000</t>
         </is>
       </c>
       <c r="C303" t="n">
-        <v>1.252</v>
+        <v>1.21</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E303" t="n">
@@ -10921,10 +10982,10 @@
         <v>1.942</v>
       </c>
       <c r="G303" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H303" t="n">
-        <v>1.252</v>
+        <v>1.21</v>
       </c>
       <c r="I303" t="inlineStr">
         <is>
@@ -10940,15 +11001,15 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>12.23000000</t>
+          <t>13.17000000</t>
         </is>
       </c>
       <c r="C304" t="n">
-        <v>11.82</v>
+        <v>11.57</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E304" t="n">
@@ -10958,10 +11019,10 @@
         <v>23.5</v>
       </c>
       <c r="G304" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="H304" t="n">
-        <v>11.82</v>
+        <v>11.57</v>
       </c>
       <c r="I304" t="inlineStr">
         <is>
@@ -10977,7 +11038,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>4.22900000</t>
+          <t>4.16500000</t>
         </is>
       </c>
       <c r="C305" t="n">
@@ -10995,7 +11056,7 @@
         <v>6.661</v>
       </c>
       <c r="G305" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H305" t="n">
         <v>4.03</v>
@@ -11014,7 +11075,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>362.10000000</t>
+          <t>363.50000000</t>
         </is>
       </c>
       <c r="C306" t="n">
@@ -11029,10 +11090,10 @@
         <v>378</v>
       </c>
       <c r="F306" t="n">
-        <v>394.5</v>
-      </c>
-      <c r="G306" s="15" t="n">
-        <v>8</v>
+        <v>419.9</v>
+      </c>
+      <c r="G306" s="11" t="n">
+        <v>15</v>
       </c>
       <c r="H306" t="n">
         <v>295.5</v>
@@ -11046,15 +11107,15 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>3.07100000</t>
+          <t>3.06700000</t>
         </is>
       </c>
       <c r="C307" t="n">
-        <v>3</v>
+        <v>2.961</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E307" t="n">
@@ -11067,7 +11128,7 @@
         <v>56</v>
       </c>
       <c r="H307" t="n">
-        <v>3</v>
+        <v>2.961</v>
       </c>
       <c r="I307" t="inlineStr">
         <is>
@@ -11083,15 +11144,15 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>4.47000000</t>
+          <t>4.52000000</t>
         </is>
       </c>
       <c r="C308" t="n">
-        <v>4.3</v>
+        <v>4.16</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E308" t="n">
@@ -11101,10 +11162,10 @@
         <v>7.52</v>
       </c>
       <c r="G308" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H308" t="n">
-        <v>4.3</v>
+        <v>4.16</v>
       </c>
       <c r="I308" t="inlineStr">
         <is>
@@ -11120,7 +11181,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>19.20000000</t>
+          <t>18.57000000</t>
         </is>
       </c>
       <c r="C309" t="n">
@@ -11138,7 +11199,7 @@
         <v>27.72</v>
       </c>
       <c r="G309" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="H309" t="n">
         <v>16.55</v>
@@ -11157,7 +11218,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>3.54700000</t>
+          <t>3.49400000</t>
         </is>
       </c>
       <c r="C310" t="n">
@@ -11175,7 +11236,7 @@
         <v>6.35</v>
       </c>
       <c r="G310" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H310" t="n">
         <v>3.226</v>
@@ -11189,7 +11250,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>2.77500000</t>
+          <t>2.69200000</t>
         </is>
       </c>
       <c r="C311" t="n">
@@ -11207,7 +11268,7 @@
         <v>3.45</v>
       </c>
       <c r="G311" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H311" t="n">
         <v>2.501</v>
@@ -11221,7 +11282,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>34.58100000</t>
+          <t>35.11900000</t>
         </is>
       </c>
       <c r="C312" t="n">
@@ -11239,10 +11300,10 @@
         <v>43.899</v>
       </c>
       <c r="G312" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H312" t="n">
-        <v>32.431</v>
+        <v>32.233</v>
       </c>
     </row>
     <row r="313">
@@ -11253,7 +11314,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>2.90590000</t>
+          <t>2.99050000</t>
         </is>
       </c>
       <c r="C313" t="n">
@@ -11271,7 +11332,7 @@
         <v>4.3212</v>
       </c>
       <c r="G313" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H313" t="n">
         <v>2.8</v>
@@ -11285,15 +11346,15 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>10.07000000</t>
+          <t>9.65000000</t>
         </is>
       </c>
       <c r="C314" t="n">
-        <v>9.51</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>19   2022-01-05</t>
+          <t>19   2022-01-06</t>
         </is>
       </c>
       <c r="E314" t="n">
@@ -11303,10 +11364,10 @@
         <v>20.5</v>
       </c>
       <c r="G314" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="H314" t="n">
-        <v>9.51</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="I314" t="inlineStr">
         <is>
@@ -11326,10 +11387,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -11393,14 +11454,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20.28000000</t>
+          <t>19.99000000</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>27.71</v>
       </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -11411,14 +11472,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.12190000</t>
+          <t>0.11970000</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0.1937</v>
       </c>
       <c r="D3" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -11429,14 +11490,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>153.78000000</t>
+          <t>151.80000000</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>204.75</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -11447,7 +11508,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3.06000000</t>
+          <t>3.06700000</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -11465,14 +11526,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.09000000</t>
+          <t>9.63000000</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>20.5</v>
       </c>
       <c r="D6" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
@@ -11483,14 +11544,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43.30000000</t>
+          <t>41.70000000</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>85.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
@@ -11501,14 +11562,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.02400000</t>
+          <t>0.02240000</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0.0335</v>
       </c>
       <c r="D8" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9">
@@ -11519,14 +11580,14 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.63600000</t>
+          <t>0.63900000</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0.867</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
@@ -11537,14 +11598,14 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>405.80000000</t>
+          <t>415.30000000</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>694.47</v>
       </c>
       <c r="D10" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11">
@@ -11555,14 +11616,14 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1.24100000</t>
+          <t>1.21150000</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1.8103</v>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12">
@@ -11573,14 +11634,14 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.17310000</t>
+          <t>0.16880000</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>0.239</v>
       </c>
       <c r="D12" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
@@ -11591,14 +11652,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>32.88000000</t>
+          <t>32.24000000</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>46.72</v>
       </c>
       <c r="D13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -11609,17 +11670,14 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>472.00000000</t>
+          <t>476.10000000</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>572</v>
       </c>
       <c r="D14" t="n">
-        <v>21</v>
-      </c>
-      <c r="F14" t="n">
-        <v>572</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
@@ -11630,14 +11688,14 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.68230000</t>
+          <t>0.67090000</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>1.0474</v>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16">
@@ -11648,14 +11706,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>19.24000000</t>
+          <t>18.61000000</t>
         </is>
       </c>
       <c r="C16" t="n">
         <v>27.72</v>
       </c>
       <c r="D16" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -11666,14 +11724,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>54.00000000</t>
+          <t>52.45700000</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>89.614</v>
       </c>
       <c r="D17" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -11684,14 +11742,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.00559500</t>
+          <t>0.00556700</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>0.019024</v>
       </c>
       <c r="D18" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
@@ -11702,14 +11760,14 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2.24300000</t>
+          <t>2.21600000</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>2.448</v>
       </c>
-      <c r="D19" s="15" t="n">
-        <v>9</v>
+      <c r="D19" s="12" t="n">
+        <v>10</v>
       </c>
       <c r="F19" t="n">
         <v>2.448</v>
@@ -11723,14 +11781,14 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>887.40000000</t>
+          <t>869.30000000</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1367.7</v>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21">
@@ -11741,14 +11799,14 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.18210000</t>
+          <t>0.18150000</t>
         </is>
       </c>
       <c r="C21" t="n">
         <v>0.2327</v>
       </c>
       <c r="D21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
@@ -11759,14 +11817,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2.08000000</t>
+          <t>2.02400000</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>2.754</v>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23">
@@ -11777,14 +11835,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3.21800000</t>
+          <t>3.04700000</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>5.982</v>
       </c>
       <c r="D23" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24">
@@ -11795,14 +11853,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.00041470</t>
+          <t>0.00041700</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>0.0005437</v>
       </c>
       <c r="D24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
@@ -11813,14 +11871,14 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.00997200</t>
+          <t>0.00993100</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0.012443</v>
       </c>
       <c r="D25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
@@ -11831,7 +11889,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.03081000</t>
+          <t>0.03080000</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -11849,14 +11907,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2.91630000</t>
+          <t>3.32730000</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>3.9694</v>
       </c>
       <c r="D27" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28">
@@ -11867,14 +11925,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.13690000</t>
+          <t>0.13520000</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0.1712</v>
       </c>
       <c r="D28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
@@ -11885,14 +11943,14 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1.33200000</t>
+          <t>1.29400000</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>1.942</v>
       </c>
       <c r="D29" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
@@ -11903,14 +11961,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.20000000</t>
+          <t>0.19840000</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>0.3043</v>
       </c>
       <c r="D30" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31">
@@ -11921,14 +11979,14 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.63560000</t>
+          <t>0.61320000</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>0.87</v>
       </c>
       <c r="D31" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32">
@@ -11939,14 +11997,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.04722000</t>
+          <t>0.04625000</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>0.05975</v>
       </c>
       <c r="D32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33">
@@ -11957,14 +12015,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>136.60000000</t>
+          <t>136.80000000</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>166.8</v>
       </c>
       <c r="D33" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34">
@@ -11975,14 +12033,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>22.52000000</t>
+          <t>22.37000000</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>28.75</v>
       </c>
       <c r="D34" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
@@ -11993,14 +12051,14 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>137.50000000</t>
+          <t>138.60000000</t>
         </is>
       </c>
       <c r="C35" t="n">
         <v>173.6</v>
       </c>
       <c r="D35" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
@@ -12011,14 +12069,14 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>39.31000000</t>
+          <t>38.32000000</t>
         </is>
       </c>
       <c r="C36" t="n">
         <v>49</v>
       </c>
       <c r="D36" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
@@ -12029,14 +12087,14 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0.43690000</t>
+          <t>0.44100000</t>
         </is>
       </c>
       <c r="C37" t="n">
         <v>0.526</v>
       </c>
       <c r="D37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -12047,7 +12105,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0.07646000</t>
+          <t>0.07631000</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -12065,14 +12123,14 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>59.11000000</t>
+          <t>61.25000000</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>71.98999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -12083,14 +12141,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>24.47000000</t>
+          <t>24.82000000</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>30.58</v>
       </c>
       <c r="D40" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
@@ -12101,14 +12159,14 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.84240000</t>
+          <t>0.83620000</t>
         </is>
       </c>
       <c r="C41" t="n">
         <v>1.2671</v>
       </c>
       <c r="D41" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42">
@@ -12119,14 +12177,14 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2.75800000</t>
+          <t>2.78300000</t>
         </is>
       </c>
       <c r="C42" t="n">
         <v>3.856</v>
       </c>
       <c r="D42" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43">
@@ -12137,14 +12195,14 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>213.81000000</t>
+          <t>213.27000000</t>
         </is>
       </c>
       <c r="C43" t="n">
         <v>284</v>
       </c>
       <c r="D43" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44">
@@ -12155,14 +12213,14 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0.07473000</t>
+          <t>0.07600000</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>0.10798</v>
       </c>
       <c r="D44" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45">
@@ -12173,14 +12231,14 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0.32730000</t>
+          <t>0.31580000</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>0.452</v>
       </c>
       <c r="D45" t="n">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46">
@@ -12191,7 +12249,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0.59660000</t>
+          <t>0.59470000</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -12209,14 +12267,14 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1.53900000</t>
+          <t>1.53400000</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>2.185</v>
       </c>
       <c r="D47" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48">
@@ -12227,14 +12285,14 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0.05506000</t>
+          <t>0.05470000</t>
         </is>
       </c>
       <c r="C48" t="n">
         <v>0.07722</v>
       </c>
       <c r="D48" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="49">
@@ -12245,14 +12303,14 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.01173000</t>
+          <t>0.01122000</t>
         </is>
       </c>
       <c r="C49" t="n">
         <v>0.01897</v>
       </c>
       <c r="D49" t="n">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50">
@@ -12263,14 +12321,14 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1.95350000</t>
+          <t>1.92500000</t>
         </is>
       </c>
       <c r="C50" t="n">
         <v>2.695</v>
       </c>
       <c r="D50" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51">
@@ -12281,14 +12339,14 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>123.00000000</t>
+          <t>124.60000000</t>
         </is>
       </c>
       <c r="C51" t="n">
         <v>157.8</v>
       </c>
       <c r="D51" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
@@ -12299,14 +12357,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1.70600000</t>
+          <t>1.69100000</t>
         </is>
       </c>
       <c r="C52" t="n">
         <v>2.295</v>
       </c>
       <c r="D52" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53">
@@ -12317,14 +12375,14 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0.01642000</t>
+          <t>0.01638000</t>
         </is>
       </c>
       <c r="C53" t="n">
         <v>0.0223</v>
       </c>
       <c r="D53" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54">
@@ -12335,14 +12393,14 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0.77340000</t>
+          <t>0.78250000</t>
         </is>
       </c>
       <c r="C54" t="n">
         <v>1.0167</v>
       </c>
       <c r="D54" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55">
@@ -12353,14 +12411,14 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>5.01600000</t>
+          <t>4.91900000</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>7.226</v>
       </c>
       <c r="D55" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56">
@@ -12371,14 +12429,14 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0.03183000</t>
+          <t>0.03131000</t>
         </is>
       </c>
       <c r="C56" t="n">
         <v>0.05076</v>
       </c>
       <c r="D56" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57">
@@ -12389,14 +12447,14 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0.06103000</t>
+          <t>0.05999000</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>0.08784</v>
       </c>
       <c r="D57" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="58">
@@ -12407,14 +12465,14 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>267.60000000</t>
+          <t>271.20000000</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>345</v>
       </c>
       <c r="D58" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59">
@@ -12425,14 +12483,14 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1.67100000</t>
+          <t>1.68500000</t>
         </is>
       </c>
       <c r="C59" t="n">
         <v>2.25</v>
       </c>
       <c r="D59" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
@@ -12443,14 +12501,14 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0.19120000</t>
+          <t>0.18780000</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>0.2605</v>
       </c>
       <c r="D60" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61">
@@ -12461,14 +12519,14 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0.12340000</t>
+          <t>0.12170000</t>
         </is>
       </c>
       <c r="C61" t="n">
         <v>0.1582</v>
       </c>
       <c r="D61" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62">
@@ -12479,14 +12537,14 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4.32670000</t>
+          <t>4.37680000</t>
         </is>
       </c>
       <c r="C62" t="n">
         <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="63">
@@ -12497,14 +12555,14 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>7.54900000</t>
+          <t>7.38000000</t>
         </is>
       </c>
       <c r="C63" t="n">
         <v>10.337</v>
       </c>
       <c r="D63" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
@@ -12515,14 +12573,14 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>29.99000000</t>
+          <t>29.64000000</t>
         </is>
       </c>
       <c r="C64" t="n">
         <v>37.99</v>
       </c>
       <c r="D64" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
@@ -12533,14 +12591,14 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2.20000000</t>
+          <t>2.25200000</t>
         </is>
       </c>
       <c r="C65" t="n">
         <v>2.923</v>
       </c>
       <c r="D65" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="66">
@@ -12551,14 +12609,14 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4.47000000</t>
+          <t>4.52000000</t>
         </is>
       </c>
       <c r="C66" t="n">
         <v>7.52</v>
       </c>
       <c r="D66" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="67">
@@ -12569,7 +12627,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0.13820000</t>
+          <t>0.13740000</t>
         </is>
       </c>
       <c r="C67" t="n">
@@ -12587,14 +12645,14 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>25.53100000</t>
+          <t>27.39800000</t>
         </is>
       </c>
       <c r="C68" t="n">
         <v>47.98</v>
       </c>
       <c r="D68" t="n">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="69">
@@ -12605,7 +12663,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0.98400000</t>
+          <t>0.97700000</t>
         </is>
       </c>
       <c r="C69" t="n">
@@ -12623,14 +12681,14 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>5.59300000</t>
+          <t>5.66200000</t>
         </is>
       </c>
       <c r="C70" t="n">
         <v>7.197</v>
       </c>
       <c r="D70" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="71">
@@ -12641,14 +12699,14 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0.18250000</t>
+          <t>0.17650000</t>
         </is>
       </c>
       <c r="C71" t="n">
         <v>0.25</v>
       </c>
       <c r="D71" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72">
@@ -12659,14 +12717,14 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0.52670000</t>
+          <t>0.52300000</t>
         </is>
       </c>
       <c r="C72" t="n">
         <v>0.6896</v>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73">
@@ -12677,14 +12735,14 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0.19040000</t>
+          <t>0.18670000</t>
         </is>
       </c>
       <c r="C73" t="n">
         <v>0.2512</v>
       </c>
       <c r="D73" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74">
@@ -12695,14 +12753,14 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0.65120000</t>
+          <t>0.63700000</t>
         </is>
       </c>
       <c r="C74" t="n">
         <v>0.88</v>
       </c>
       <c r="D74" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="75">
@@ -12713,7 +12771,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0.20590000</t>
+          <t>0.20560000</t>
         </is>
       </c>
       <c r="C75" t="n">
@@ -12731,14 +12789,14 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0.01538000</t>
+          <t>0.01520000</t>
         </is>
       </c>
       <c r="C76" t="n">
         <v>0.01988</v>
       </c>
       <c r="D76" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77">
@@ -12749,14 +12807,14 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0.02294000</t>
+          <t>0.02334000</t>
         </is>
       </c>
       <c r="C77" t="n">
         <v>0.03369</v>
       </c>
       <c r="D77" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78">
@@ -12767,14 +12825,14 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0.69280000</t>
+          <t>0.68520000</t>
         </is>
       </c>
       <c r="C78" t="n">
         <v>0.98</v>
       </c>
       <c r="D78" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79">
@@ -12785,14 +12843,14 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0.02840000</t>
+          <t>0.02776000</t>
         </is>
       </c>
       <c r="C79" t="n">
         <v>0.03551</v>
       </c>
       <c r="D79" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="80">
@@ -12803,14 +12861,14 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>167.60000000</t>
+          <t>179.20000000</t>
         </is>
       </c>
       <c r="C80" t="n">
         <v>209.3</v>
       </c>
       <c r="D80" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81">
@@ -12821,7 +12879,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1.12700000</t>
+          <t>1.12800000</t>
         </is>
       </c>
       <c r="C81" t="n">
@@ -12839,14 +12897,14 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>0.00672300</t>
+          <t>0.00667200</t>
         </is>
       </c>
       <c r="C82" t="n">
         <v>0.009247999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="83">
@@ -12857,14 +12915,14 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>0.09997000</t>
+          <t>0.09802000</t>
         </is>
       </c>
       <c r="C83" t="n">
         <v>0.1269</v>
       </c>
       <c r="D83" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84">
@@ -12875,14 +12933,14 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2.74700000</t>
+          <t>2.68000000</t>
         </is>
       </c>
       <c r="C84" t="n">
         <v>3.5</v>
       </c>
       <c r="D84" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
@@ -12893,14 +12951,14 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2.84030000</t>
+          <t>3.01950000</t>
         </is>
       </c>
       <c r="C85" t="n">
         <v>3.9328</v>
       </c>
       <c r="D85" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
@@ -12911,14 +12969,14 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>43600.50000000</t>
+          <t>43117.70000000</t>
         </is>
       </c>
       <c r="C86" t="n">
         <v>52088</v>
       </c>
       <c r="D86" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
@@ -12929,14 +12987,14 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>0.05176000</t>
+          <t>0.05190000</t>
         </is>
       </c>
       <c r="C87" t="n">
         <v>0.06056</v>
       </c>
       <c r="D87" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88">
@@ -12947,14 +13005,14 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2587.00000000</t>
+          <t>2673.00000000</t>
         </is>
       </c>
       <c r="C88" t="n">
         <v>3951</v>
       </c>
       <c r="D88" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89">
@@ -12965,14 +13023,14 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>4.26800000</t>
+          <t>4.15600000</t>
         </is>
       </c>
       <c r="C89" t="n">
         <v>6.661</v>
       </c>
       <c r="D89" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
@@ -12983,14 +13041,14 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>14.39000000</t>
+          <t>14.26000000</t>
         </is>
       </c>
       <c r="C90" t="n">
         <v>17.95</v>
       </c>
       <c r="D90" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91">
@@ -13001,14 +13059,14 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>0.11045000</t>
+          <t>0.11002000</t>
         </is>
       </c>
       <c r="C91" t="n">
         <v>0.15314</v>
       </c>
       <c r="D91" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
@@ -13019,14 +13077,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>4.72400000</t>
+          <t>4.77900000</t>
         </is>
       </c>
       <c r="C92" t="n">
         <v>6.349</v>
       </c>
       <c r="D92" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="93">
@@ -13037,14 +13095,14 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>0.37690000</t>
+          <t>0.38489000</t>
         </is>
       </c>
       <c r="C93" t="n">
         <v>0.55359</v>
       </c>
       <c r="D93" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94">
@@ -13055,14 +13113,14 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>0.02045000</t>
+          <t>0.02110000</t>
         </is>
       </c>
       <c r="C94" t="n">
         <v>0.02759</v>
       </c>
       <c r="D94" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95">
@@ -13073,14 +13131,14 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>0.62640000</t>
+          <t>0.60390000</t>
         </is>
       </c>
       <c r="C95" t="n">
         <v>0.85</v>
       </c>
       <c r="D95" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
@@ -13091,14 +13149,14 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>0.57011000</t>
+          <t>0.54768000</t>
         </is>
       </c>
       <c r="C96" t="n">
         <v>0.82866</v>
       </c>
       <c r="D96" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97">
@@ -13109,14 +13167,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>1.64090000</t>
+          <t>1.65320000</t>
         </is>
       </c>
       <c r="C97" t="n">
         <v>2.1856</v>
       </c>
       <c r="D97" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="98">
@@ -13127,14 +13185,14 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>0.05470000</t>
+          <t>0.05411000</t>
         </is>
       </c>
       <c r="C98" t="n">
         <v>0.0745</v>
       </c>
       <c r="D98" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99">
@@ -13145,14 +13203,14 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>8.11000000</t>
+          <t>8.20000000</t>
         </is>
       </c>
       <c r="C99" t="n">
         <v>10.98</v>
       </c>
       <c r="D99" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100">
@@ -13163,14 +13221,14 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>0.09159000</t>
+          <t>0.09223000</t>
         </is>
       </c>
       <c r="C100" t="n">
         <v>0.1278</v>
       </c>
       <c r="D100" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101">
@@ -13181,14 +13239,14 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>0.19030000</t>
+          <t>0.19260000</t>
         </is>
       </c>
       <c r="C101" t="n">
         <v>0.2649</v>
       </c>
       <c r="D101" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102">
@@ -13199,14 +13257,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>0.23351000</t>
+          <t>0.22686000</t>
         </is>
       </c>
       <c r="C102" t="n">
         <v>0.29695</v>
       </c>
       <c r="D102" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
@@ -13217,14 +13275,14 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>34.09000000</t>
+          <t>33.43000000</t>
         </is>
       </c>
       <c r="C103" t="n">
         <v>49.8</v>
       </c>
       <c r="D103" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104">
@@ -13235,14 +13293,14 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>1.23500000</t>
+          <t>1.27400000</t>
         </is>
       </c>
       <c r="C104" t="n">
         <v>1.594</v>
       </c>
       <c r="D104" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="105">
@@ -13253,7 +13311,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>400.60000000</t>
+          <t>400.40000000</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -13271,14 +13329,14 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>0.53710000</t>
+          <t>0.52320000</t>
         </is>
       </c>
       <c r="C106" t="n">
         <v>0.7541</v>
       </c>
       <c r="D106" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="107">
@@ -13289,14 +13347,14 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>0.35100000</t>
+          <t>0.34600000</t>
         </is>
       </c>
       <c r="C107" t="n">
         <v>0.487</v>
       </c>
       <c r="D107" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108">
@@ -13307,14 +13365,14 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>10.73000000</t>
+          <t>10.32000000</t>
         </is>
       </c>
       <c r="C108" t="n">
         <v>14.95</v>
       </c>
       <c r="D108" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="109">
@@ -13325,14 +13383,14 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>80.30000000</t>
+          <t>79.34000000</t>
         </is>
       </c>
       <c r="C109" t="n">
         <v>111.62</v>
       </c>
       <c r="D109" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
@@ -13343,14 +13401,14 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>0.01451000</t>
+          <t>0.01449000</t>
         </is>
       </c>
       <c r="C110" t="n">
         <v>0.01784</v>
       </c>
       <c r="D110" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="111">
@@ -13361,14 +13419,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>5.64000000</t>
+          <t>5.67000000</t>
         </is>
       </c>
       <c r="C111" t="n">
         <v>7.65</v>
       </c>
       <c r="D111" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="112">
@@ -13379,14 +13437,14 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3533.34000000</t>
+          <t>3423.46000000</t>
         </is>
       </c>
       <c r="C112" t="n">
         <v>4150</v>
       </c>
       <c r="D112" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="113">
@@ -13397,14 +13455,14 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2234.00000000</t>
+          <t>2257.00000000</t>
         </is>
       </c>
       <c r="C113" t="n">
         <v>2814</v>
       </c>
       <c r="D113" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="114">
@@ -13415,14 +13473,14 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2.89600000</t>
+          <t>2.92600000</t>
         </is>
       </c>
       <c r="C114" t="n">
         <v>3.53</v>
       </c>
       <c r="D114" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="115">
@@ -13433,14 +13491,14 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>1.45700000</t>
+          <t>1.46000000</t>
         </is>
       </c>
       <c r="C115" t="n">
         <v>2.131</v>
       </c>
       <c r="D115" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="116">
@@ -13451,14 +13509,14 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>8.99000000</t>
+          <t>8.62000000</t>
         </is>
       </c>
       <c r="C116" t="n">
         <v>12.8</v>
       </c>
       <c r="D116" t="n">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117">
@@ -13469,14 +13527,14 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>8.29300000</t>
+          <t>8.37600000</t>
         </is>
       </c>
       <c r="C117" t="n">
         <v>10.55</v>
       </c>
       <c r="D117" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
@@ -13487,14 +13545,14 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>0.07107000</t>
+          <t>0.07122000</t>
         </is>
       </c>
       <c r="C118" t="n">
         <v>0.08322</v>
       </c>
       <c r="D118" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
@@ -13505,14 +13563,14 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>0.01597000</t>
+          <t>0.01573000</t>
         </is>
       </c>
       <c r="C119" t="n">
         <v>0.02014</v>
       </c>
       <c r="D119" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="120">
@@ -13523,14 +13581,14 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>32.01000000</t>
+          <t>31.67000000</t>
         </is>
       </c>
       <c r="C120" t="n">
         <v>38.79</v>
       </c>
       <c r="D120" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121">
@@ -13541,14 +13599,14 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>5.02040000</t>
+          <t>5.18460000</t>
         </is>
       </c>
       <c r="C121" t="n">
         <v>6.9636</v>
       </c>
       <c r="D121" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122">
@@ -13559,14 +13617,14 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>1.09800000</t>
+          <t>1.12100000</t>
         </is>
       </c>
       <c r="C122" t="n">
         <v>1.974</v>
       </c>
       <c r="D122" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="123">
@@ -13577,7 +13635,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>0.15930000</t>
+          <t>0.16020000</t>
         </is>
       </c>
       <c r="C123" t="n">
@@ -13595,14 +13653,14 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>4.56500000</t>
+          <t>4.52200000</t>
         </is>
       </c>
       <c r="C124" t="n">
         <v>6.635</v>
       </c>
       <c r="D124" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="125">
@@ -13613,7 +13671,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>0.02038000</t>
+          <t>0.02039000</t>
         </is>
       </c>
       <c r="C125" t="n">
@@ -13631,14 +13689,14 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>1.80120000</t>
+          <t>1.90500000</t>
         </is>
       </c>
       <c r="C126" t="n">
         <v>2.4579</v>
       </c>
       <c r="D126" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="127">
@@ -13649,14 +13707,14 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>97.06000000</t>
+          <t>95.57000000</t>
         </is>
       </c>
       <c r="C127" t="n">
         <v>127.32</v>
       </c>
       <c r="D127" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128">
@@ -13667,14 +13725,14 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>67.86800000</t>
+          <t>62.04400000</t>
         </is>
       </c>
       <c r="C128" t="n">
         <v>100.82</v>
       </c>
       <c r="D128" t="n">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129">
@@ -13685,14 +13743,17 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>37.97000000</t>
+          <t>38.84000000</t>
         </is>
       </c>
       <c r="C129" t="n">
         <v>44.1</v>
       </c>
-      <c r="D129" t="n">
-        <v>16</v>
+      <c r="D129" s="12" t="n">
+        <v>13</v>
+      </c>
+      <c r="F129" t="n">
+        <v>44.1</v>
       </c>
     </row>
     <row r="130">
@@ -13703,7 +13764,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>0.63010000</t>
+          <t>0.62980000</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -13721,14 +13782,14 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>1.18500000</t>
+          <t>1.16500000</t>
         </is>
       </c>
       <c r="C131" t="n">
         <v>1.58</v>
       </c>
       <c r="D131" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
@@ -13739,14 +13800,14 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>0.10763000</t>
+          <t>0.10685000</t>
         </is>
       </c>
       <c r="C132" t="n">
         <v>0.14391</v>
       </c>
       <c r="D132" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="133">
@@ -13757,14 +13818,14 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1.10640000</t>
+          <t>1.11020000</t>
         </is>
       </c>
       <c r="C133" t="n">
         <v>1.44</v>
       </c>
       <c r="D133" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134">
@@ -13775,17 +13836,14 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>0.12760000</t>
+          <t>0.12310000</t>
         </is>
       </c>
       <c r="C134" t="n">
         <v>0.1439</v>
       </c>
-      <c r="D134" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.1439</v>
+      <c r="D134" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="135">
@@ -13796,14 +13854,14 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>0.00794600</t>
+          <t>0.00796300</t>
         </is>
       </c>
       <c r="C135" t="n">
         <v>0.010818</v>
       </c>
       <c r="D135" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136">
@@ -13814,14 +13872,14 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>11.31000000</t>
+          <t>11.15000000</t>
         </is>
       </c>
       <c r="C136" t="n">
         <v>13.37</v>
       </c>
       <c r="D136" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="137">
@@ -13832,14 +13890,14 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>0.00840100</t>
+          <t>0.00846200</t>
         </is>
       </c>
       <c r="C137" t="n">
         <v>0.012</v>
       </c>
       <c r="D137" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138">
@@ -13850,14 +13908,14 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>8.02200000</t>
+          <t>7.80500000</t>
         </is>
       </c>
       <c r="C138" t="n">
         <v>10.148</v>
       </c>
       <c r="D138" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
@@ -13868,14 +13926,14 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2.19500000</t>
+          <t>2.15100000</t>
         </is>
       </c>
       <c r="C139" t="n">
         <v>3.081</v>
       </c>
       <c r="D139" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="140">
@@ -13886,14 +13944,14 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>6.03500000</t>
+          <t>5.87000000</t>
         </is>
       </c>
       <c r="C140" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="141">
@@ -13904,14 +13962,14 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>14.11000000</t>
+          <t>13.48000000</t>
         </is>
       </c>
       <c r="C141" t="n">
         <v>19.77</v>
       </c>
       <c r="D141" t="n">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="142">
@@ -13922,14 +13980,14 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>12.25000000</t>
+          <t>13.18000000</t>
         </is>
       </c>
       <c r="C142" t="n">
         <v>23.5</v>
       </c>
       <c r="D142" t="n">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="143">
@@ -13940,14 +13998,14 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>0.68760000</t>
+          <t>0.67360000</t>
         </is>
       </c>
       <c r="C143" t="n">
         <v>0.8426</v>
       </c>
       <c r="D143" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="144">
@@ -13958,14 +14016,269 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>60.30000000</t>
+          <t>57.86000000</t>
         </is>
       </c>
       <c r="C144" t="n">
         <v>76</v>
       </c>
       <c r="D144" t="n">
-        <v>26</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>WINGUSDT</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>13.77000000</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>18.68</v>
+      </c>
+      <c r="D145" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>SRMUSDT</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>3.26100000</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>4.283</v>
+      </c>
+      <c r="D146" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>FISUSDT</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1.09490000</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1.6486</v>
+      </c>
+      <c r="D147" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>POLSUSDT</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>2.56500000</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>OXTUSDT</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>0.34340000</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.5073</v>
+      </c>
+      <c r="D149" t="n">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>KNCUSDT</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1.30900000</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1.565</v>
+      </c>
+      <c r="D150" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>DARUSDT</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1.93007000</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>2.7542</v>
+      </c>
+      <c r="D151" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>MTLUSDT</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>2.03000000</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>2.459</v>
+      </c>
+      <c r="D152" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>FRONTUSDT</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>0.64580000</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>1.1346</v>
+      </c>
+      <c r="D153" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PERPUSDT</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>8.55000000</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="D154" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>XVSUSDT</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>14.54000000</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>17.98</v>
+      </c>
+      <c r="D155" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>EPSUSDT</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>0.25010000</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.3576</v>
+      </c>
+      <c r="D156" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>KEYUSDT</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>0.01193400</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.016169</v>
+      </c>
+      <c r="D157" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>PAXGUSDT</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1798.00000000</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D158" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1869</v>
       </c>
     </row>
   </sheetData>

--- a/sst.xlsx
+++ b/sst.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>44599.98000000</t>
+          <t>43351.24000000</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -599,13 +599,13 @@
         <v>44500</v>
       </c>
       <c r="F2" t="n">
-        <v>45492</v>
+        <v>45821</v>
       </c>
       <c r="G2" s="11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>42666</v>
+        <v>42600</v>
       </c>
     </row>
     <row r="3">
@@ -616,7 +616,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3247.24000000</t>
+          <t>3075.34000000</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -631,13 +631,13 @@
         <v>3410</v>
       </c>
       <c r="F3" t="n">
-        <v>3269.7</v>
+        <v>3283.66</v>
       </c>
       <c r="G3" s="11" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H3" t="n">
-        <v>3025.21</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="4">
@@ -648,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>426.90000000</t>
+          <t>413.60000000</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -666,10 +666,10 @@
         <v>445.4</v>
       </c>
       <c r="G4" s="11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>406.2</v>
+        <v>407.1</v>
       </c>
     </row>
     <row r="5">
@@ -680,15 +680,15 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1.19400000</t>
+          <t>1.14000000</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.917</v>
+        <v>0.951</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -698,10 +698,10 @@
         <v>1.263</v>
       </c>
       <c r="G5" s="11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
-        <v>1.133</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="6">
@@ -712,7 +712,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>113.48000000</t>
+          <t>105.45000000</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -730,10 +730,10 @@
         <v>121.93</v>
       </c>
       <c r="G6" s="11" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H6" t="n">
-        <v>109.4</v>
+        <v>103.61</v>
       </c>
     </row>
     <row r="7">
@@ -744,15 +744,15 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.88830000</t>
+          <t>0.82330000</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.5489000000000001</v>
+        <v>0.5524</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -762,10 +762,10 @@
         <v>0.9167999999999999</v>
       </c>
       <c r="G7" s="11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8034</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="8">
@@ -776,7 +776,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>56.75000000</t>
+          <t>52.12000000</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -794,10 +794,10 @@
         <v>70.44</v>
       </c>
       <c r="G8" t="n">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
-        <v>54.26</v>
+        <v>50.87</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -813,7 +813,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>22.27000000</t>
+          <t>20.50000000</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -831,10 +831,10 @@
         <v>23.19</v>
       </c>
       <c r="G9" s="11" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05</v>
+        <v>20.03</v>
       </c>
     </row>
     <row r="10">
@@ -845,15 +845,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.15880000</t>
+          <t>0.15120000</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.12</v>
+        <v>0.1256</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -863,10 +863,10 @@
         <v>0.1731</v>
       </c>
       <c r="G10" s="11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1529</v>
+        <v>0.1488</v>
       </c>
     </row>
     <row r="11">
@@ -877,15 +877,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>90.30000000</t>
+          <t>91.28000000</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>52.95</v>
+        <v>55.14</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -895,10 +895,10 @@
         <v>95.5</v>
       </c>
       <c r="G11" s="11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>81.65000000000001</v>
+        <v>84.34</v>
       </c>
     </row>
     <row r="12">
@@ -909,7 +909,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2.00700000</t>
+          <t>1.83400000</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -924,13 +924,13 @@
         <v>2.452</v>
       </c>
       <c r="F12" t="n">
-        <v>2.1</v>
+        <v>2.101</v>
       </c>
       <c r="G12" s="11" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="H12" t="n">
-        <v>1.859</v>
+        <v>1.817</v>
       </c>
     </row>
     <row r="13">
@@ -941,15 +941,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.00003313</t>
+          <t>0.00003034</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.704e-05</v>
+        <v>1.865e-05</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -958,11 +958,11 @@
       <c r="F13" t="n">
         <v>3.523e-05</v>
       </c>
-      <c r="G13" s="11" t="n">
-        <v>6</v>
+      <c r="G13" t="n">
+        <v>16</v>
       </c>
       <c r="H13" t="n">
-        <v>2.942e-05</v>
+        <v>2.986e-05</v>
       </c>
     </row>
     <row r="14">
@@ -973,7 +973,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>30.69000000</t>
+          <t>28.58000000</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -991,10 +991,10 @@
         <v>37.19</v>
       </c>
       <c r="G14" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>29.53</v>
+        <v>28.1</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>18.65000000</t>
+          <t>17.31000000</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -1028,10 +1028,10 @@
         <v>19.54</v>
       </c>
       <c r="G15" s="11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H15" t="n">
-        <v>17.72</v>
+        <v>17.15</v>
       </c>
     </row>
     <row r="16">
@@ -1042,28 +1042,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>140.40000000</t>
+          <t>132.20000000</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96.3</v>
+        <v>97.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E16" t="n">
         <v>153.9</v>
       </c>
       <c r="F16" t="n">
-        <v>142.9</v>
+        <v>143.8</v>
       </c>
       <c r="G16" s="11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
-        <v>130.4</v>
+        <v>129.8</v>
       </c>
     </row>
     <row r="17">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12.26000000</t>
+          <t>11.39000000</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1089,13 +1089,13 @@
         <v>18.19</v>
       </c>
       <c r="F17" t="n">
-        <v>13.01</v>
+        <v>13</v>
       </c>
       <c r="G17" s="11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>11.5</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="18">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12.71400000</t>
+          <t>11.65500000</t>
         </is>
       </c>
       <c r="C18" t="n">
@@ -1123,11 +1123,11 @@
       <c r="F18" t="n">
         <v>14.083</v>
       </c>
-      <c r="G18" s="11" t="n">
-        <v>10</v>
+      <c r="G18" t="n">
+        <v>20</v>
       </c>
       <c r="H18" t="n">
-        <v>12.098</v>
+        <v>11.381</v>
       </c>
     </row>
     <row r="19">
@@ -1138,15 +1138,15 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1.04170000</t>
+          <t>0.96910000</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.7957</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1156,10 +1156,10 @@
         <v>1.102</v>
       </c>
       <c r="G19" s="11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H19" t="n">
-        <v>0.987</v>
+        <v>0.9465</v>
       </c>
     </row>
     <row r="20">
@@ -1170,7 +1170,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.07093000</t>
+          <t>0.06832000</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -1185,13 +1185,13 @@
         <v>0.07244</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0711</v>
+        <v>0.07165000000000001</v>
       </c>
       <c r="G20" s="11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06677</v>
+        <v>0.06718</v>
       </c>
     </row>
     <row r="21">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>47.89000000</t>
+          <t>44.48000000</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -1220,10 +1220,10 @@
         <v>50.08</v>
       </c>
       <c r="G21" s="11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H21" t="n">
-        <v>45.18</v>
+        <v>43.77</v>
       </c>
     </row>
     <row r="22">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>353.00000000</t>
+          <t>337.10000000</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -1249,13 +1249,13 @@
         <v>398.7</v>
       </c>
       <c r="F22" t="n">
-        <v>355.9</v>
+        <v>362.7</v>
       </c>
       <c r="G22" s="11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
-        <v>324.9</v>
+        <v>328.2</v>
       </c>
     </row>
     <row r="23">
@@ -1266,15 +1266,15 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2.25120000</t>
+          <t>2.10440000</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.77</v>
+        <v>1.8646</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-02-03</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1283,11 +1283,11 @@
       <c r="F23" t="n">
         <v>2.5812</v>
       </c>
-      <c r="G23" s="11" t="n">
-        <v>14</v>
+      <c r="G23" t="n">
+        <v>22</v>
       </c>
       <c r="H23" t="n">
-        <v>2.1357</v>
+        <v>2.0571</v>
       </c>
     </row>
     <row r="24">
@@ -1298,15 +1298,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.24050000</t>
+          <t>0.22840000</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.1676</v>
+        <v>0.1718</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1316,10 +1316,10 @@
         <v>0.2571</v>
       </c>
       <c r="G24" s="11" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2326</v>
+        <v>0.2249</v>
       </c>
     </row>
     <row r="25">
@@ -1330,15 +1330,15 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3.31310000</t>
+          <t>3.22230000</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.705</v>
+        <v>1.81</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1348,10 +1348,10 @@
         <v>3.5497</v>
       </c>
       <c r="G25" s="11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1103</v>
+        <v>3.0827</v>
       </c>
     </row>
     <row r="26">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.25620000</t>
+          <t>0.24730000</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1380,10 +1380,10 @@
         <v>0.2695</v>
       </c>
       <c r="G26" s="11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H26" t="n">
-        <v>0.2418</v>
+        <v>0.2416</v>
       </c>
     </row>
     <row r="27">
@@ -1394,28 +1394,28 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>23.16000000</t>
+          <t>21.49000000</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18.06</v>
+        <v>18.41</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E27" t="n">
         <v>35.1</v>
       </c>
       <c r="F27" t="n">
-        <v>25.32</v>
+        <v>24.68</v>
       </c>
       <c r="G27" s="11" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>22.26</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="28">
@@ -1426,15 +1426,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>4.70850000</t>
+          <t>4.49050000</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2.5561</v>
+        <v>2.6227</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1444,10 +1444,10 @@
         <v>4.8658</v>
       </c>
       <c r="G28" s="11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H28" t="n">
-        <v>4.23</v>
+        <v>4.3271</v>
       </c>
     </row>
     <row r="29">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.06731000</t>
+          <t>0.06283000</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1476,10 +1476,10 @@
         <v>0.06944</v>
       </c>
       <c r="G29" s="11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>0.06206</v>
+        <v>0.06141</v>
       </c>
     </row>
     <row r="30">
@@ -1490,28 +1490,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>35.61000000</t>
+          <t>34.36000000</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>21.2</v>
+        <v>21.69</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E30" t="n">
         <v>34.74</v>
       </c>
       <c r="F30" t="n">
-        <v>35.92</v>
+        <v>37</v>
       </c>
       <c r="G30" s="11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H30" t="n">
-        <v>30.35</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="31">
@@ -1522,15 +1522,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.23150000</t>
+          <t>0.20873000</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.16462</v>
+        <v>0.16722</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1540,10 +1540,10 @@
         <v>0.236</v>
       </c>
       <c r="G31" s="11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H31" t="n">
-        <v>0.20259</v>
+        <v>0.20574</v>
       </c>
     </row>
     <row r="32">
@@ -1554,15 +1554,15 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1.08690000</t>
+          <t>1.01300000</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6468</v>
+        <v>0.7060999999999999</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1571,11 +1571,11 @@
       <c r="F32" t="n">
         <v>1.23</v>
       </c>
-      <c r="G32" s="11" t="n">
-        <v>13</v>
+      <c r="G32" t="n">
+        <v>21</v>
       </c>
       <c r="H32" t="n">
-        <v>1.0221</v>
+        <v>0.9932</v>
       </c>
     </row>
     <row r="33">
@@ -1586,7 +1586,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.20400000</t>
+          <t>0.19684000</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1604,10 +1604,10 @@
         <v>0.329</v>
       </c>
       <c r="G33" t="n">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H33" t="n">
-        <v>0.18104</v>
+        <v>0.18252</v>
       </c>
     </row>
     <row r="34">
@@ -1618,15 +1618,15 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0.29000000</t>
+          <t>0.26600000</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.2024</v>
+        <v>0.2062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1635,11 +1635,11 @@
       <c r="F34" t="n">
         <v>0.317</v>
       </c>
-      <c r="G34" s="11" t="n">
-        <v>9</v>
+      <c r="G34" t="n">
+        <v>19</v>
       </c>
       <c r="H34" t="n">
-        <v>0.2634</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="35">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3.66200000</t>
+          <t>4.13800000</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1665,13 +1665,13 @@
         <v>4.665</v>
       </c>
       <c r="F35" t="n">
-        <v>3.723</v>
+        <v>4.388</v>
       </c>
       <c r="G35" s="11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H35" t="n">
-        <v>3.227</v>
+        <v>3.252</v>
       </c>
     </row>
     <row r="36">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7.69100000</t>
+          <t>6.65300000</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1699,11 +1699,11 @@
       <c r="F36" t="n">
         <v>8.882999999999999</v>
       </c>
-      <c r="G36" s="11" t="n">
-        <v>15</v>
+      <c r="G36" t="n">
+        <v>33</v>
       </c>
       <c r="H36" t="n">
-        <v>7.165</v>
+        <v>6.538</v>
       </c>
     </row>
     <row r="37">
@@ -1714,7 +1714,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2.69200000</t>
+          <t>2.55300000</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1732,10 +1732,10 @@
         <v>2.768</v>
       </c>
       <c r="G37" s="11" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H37" t="n">
-        <v>2.54</v>
+        <v>2.501</v>
       </c>
     </row>
     <row r="38">
@@ -1746,15 +1746,15 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1.04210000</t>
+          <t>0.96930000</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.7957</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1764,10 +1764,10 @@
         <v>1.102</v>
       </c>
       <c r="G38" s="11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H38" t="n">
-        <v>0.987</v>
+        <v>0.9465</v>
       </c>
     </row>
     <row r="39">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1.23662000</t>
+          <t>1.13152000</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -1796,10 +1796,10 @@
         <v>1.275</v>
       </c>
       <c r="G39" s="11" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H39" t="n">
-        <v>1.00387</v>
+        <v>1.01745</v>
       </c>
     </row>
     <row r="40">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>4.45900000</t>
+          <t>4.11200000</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1828,10 +1828,10 @@
         <v>4.606</v>
       </c>
       <c r="G40" s="11" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="H40" t="n">
-        <v>4.003</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="41">
@@ -1842,7 +1842,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0.01703000</t>
+          <t>0.01701000</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1857,10 +1857,10 @@
         <v>0.02189</v>
       </c>
       <c r="F41" t="n">
-        <v>0.01795</v>
+        <v>0.01847</v>
       </c>
       <c r="G41" s="11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H41" t="n">
         <v>0.01651</v>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0.02070000</t>
+          <t>0.01944000</t>
         </is>
       </c>
       <c r="C42" t="n">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1892,10 +1892,10 @@
         <v>0.0264</v>
       </c>
       <c r="G42" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="H42" t="n">
-        <v>0.01775</v>
+        <v>0.01814</v>
       </c>
     </row>
     <row r="43">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>7.44000000</t>
+          <t>7.33000000</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1924,10 +1924,10 @@
         <v>12.39</v>
       </c>
       <c r="G43" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H43" t="n">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="44">
@@ -1938,7 +1938,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0.01386000</t>
+          <t>0.01311000</t>
         </is>
       </c>
       <c r="C44" t="n">
@@ -1956,10 +1956,10 @@
         <v>0.01778</v>
       </c>
       <c r="G44" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H44" t="n">
-        <v>0.01251</v>
+        <v>0.01273</v>
       </c>
     </row>
     <row r="45">
@@ -1970,15 +1970,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>889.55000000</t>
+          <t>843.31000000</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>760</v>
+        <v>810.1</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-02-03</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1988,10 +1988,10 @@
         <v>1350</v>
       </c>
       <c r="G45" t="n">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H45" t="n">
-        <v>850</v>
+        <v>832.9400000000001</v>
       </c>
     </row>
     <row r="46">
@@ -2002,15 +2002,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>183.95000000</t>
+          <t>176.26000000</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>111.57</v>
+        <v>115.63</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2020,10 +2020,10 @@
         <v>200</v>
       </c>
       <c r="G46" s="11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H46" t="n">
-        <v>166.04</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47">
@@ -2034,15 +2034,15 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>149.80000000</t>
+          <t>142.70000000</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>84</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>19   2022-01-22</t>
+          <t>19   2022-01-24</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -2052,10 +2052,10 @@
         <v>162</v>
       </c>
       <c r="G47" s="11" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H47" t="n">
-        <v>137.8</v>
+        <v>136.9</v>
       </c>
     </row>
     <row r="48">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>14.84000000</t>
+          <t>13.62000000</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2083,11 +2083,11 @@
       <c r="F48" t="n">
         <v>16.37</v>
       </c>
-      <c r="G48" s="11" t="n">
-        <v>10</v>
+      <c r="G48" t="n">
+        <v>20</v>
       </c>
       <c r="H48" t="n">
-        <v>13.43</v>
+        <v>13.07</v>
       </c>
     </row>
     <row r="49">
@@ -2098,7 +2098,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0.61250000</t>
+          <t>0.58150000</t>
         </is>
       </c>
       <c r="C49" t="n">
@@ -2116,10 +2116,10 @@
         <v>0.6342</v>
       </c>
       <c r="G49" s="11" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5459000000000001</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="50">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5.40700000</t>
+          <t>5.05200000</t>
         </is>
       </c>
       <c r="C50" t="n">
@@ -2148,10 +2148,10 @@
         <v>5.632</v>
       </c>
       <c r="G50" s="11" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H50" t="n">
-        <v>5.061</v>
+        <v>4.932</v>
       </c>
     </row>
   </sheetData>
@@ -2167,7 +2167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
@@ -2234,14 +2234,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>426.80000000</t>
+          <t>414.40000000</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>445.4</v>
       </c>
       <c r="D2" s="11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
         <v>445.4</v>
@@ -2255,14 +2255,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>30.66000000</t>
+          <t>28.63000000</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>37.19</v>
       </c>
       <c r="D3" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
@@ -2273,14 +2273,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>18.65000000</t>
+          <t>17.35000000</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>19.54</v>
       </c>
       <c r="D4" s="11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="F4" t="n">
         <v>19.54</v>
@@ -2289,414 +2289,337 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>LTCUSDT</t>
+          <t>UNIUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>140.20000000</t>
+          <t>11.42000000</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>142.9</v>
+        <v>13</v>
       </c>
       <c r="D5" s="11" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
-        <v>142.9</v>
+        <v>13.01</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UNIUSDT</t>
+          <t>NEARUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12.23000000</t>
+          <t>11.68100000</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="D6" s="11" t="n">
-        <v>6</v>
+        <v>14.083</v>
+      </c>
+      <c r="D6" t="n">
+        <v>20</v>
       </c>
       <c r="F6" t="n">
-        <v>13.01</v>
+        <v>14.083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NEARUSDT</t>
+          <t>ALGOUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>12.70900000</t>
+          <t>0.97060000</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14.083</v>
+        <v>1.102</v>
       </c>
       <c r="D7" s="11" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
-        <v>14.083</v>
+        <v>1.102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ALGOUSDT</t>
+          <t>FTTUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1.04360000</t>
+          <t>44.58000000</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.102</v>
+        <v>50.08</v>
       </c>
       <c r="D8" s="11" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>1.102</v>
+        <v>50.08</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FTTUSDT</t>
+          <t>FTMUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>47.89000000</t>
+          <t>2.10730000</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>50.08</v>
-      </c>
-      <c r="D9" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50.08</v>
+        <v>2.5812</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCHUSDT</t>
+          <t>XLMUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>352.90000000</t>
+          <t>0.22870000</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>355.9</v>
+        <v>0.2571</v>
       </c>
       <c r="D10" s="11" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>355.9</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
+        <v>0.2571</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FTMUSDT</t>
+          <t>HBARUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2.24950000</t>
+          <t>0.24760000</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.5812</v>
+        <v>0.2695</v>
       </c>
       <c r="D11" s="11" t="n">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>XLMUSDT</t>
+          <t>ICPUSDT</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.24030000</t>
+          <t>21.54000000</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2571</v>
+        <v>24.68</v>
       </c>
       <c r="D12" s="11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2571</v>
+        <v>25.32</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBARUSDT</t>
+          <t>VETUSDT</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.25630000</t>
+          <t>0.06292000</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.2695</v>
+        <v>0.06944</v>
       </c>
       <c r="D13" s="11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2695</v>
+        <v>0.06944</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ICPUSDT</t>
+          <t>ONEUSDT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23.13000000</t>
+          <t>0.20922000</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>25.32</v>
+        <v>0.236</v>
       </c>
       <c r="D14" s="11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F14" t="n">
-        <v>25.32</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
+        <v>0.236</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VETUSDT</t>
+          <t>LRCUSDT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.06742000</t>
+          <t>1.01580000</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.06944</v>
-      </c>
-      <c r="D15" s="11" t="n">
-        <v>2</v>
+        <v>1.23</v>
+      </c>
+      <c r="D15" t="n">
+        <v>21</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06944</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ONEUSDT</t>
+          <t>IDEXUSDT</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.23107000</t>
+          <t>0.19712000</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="D16" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0.236</v>
+        <v>0.329</v>
+      </c>
+      <c r="D16" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LRCUSDT</t>
+          <t>REQUSDT</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1.08550000</t>
+          <t>0.26600000</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="D17" s="11" t="n">
-        <v>13</v>
+        <v>0.317</v>
+      </c>
+      <c r="D17" t="n">
+        <v>19</v>
       </c>
       <c r="F17" t="n">
-        <v>1.23</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IDEXUSDT</t>
+          <t>XTZUSDT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.20371000</t>
+          <t>4.12000000</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.329</v>
-      </c>
-      <c r="D18" t="n">
-        <v>61</v>
+        <v>4.606</v>
+      </c>
+      <c r="D18" s="11" t="n">
+        <v>11</v>
+      </c>
+      <c r="F18" t="n">
+        <v>4.606</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>REQUSDT</t>
+          <t>OOKIUSDT</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.28980000</t>
+          <t>0.01942000</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.317</v>
-      </c>
-      <c r="D19" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.317</v>
+        <v>0.0264</v>
+      </c>
+      <c r="D19" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>THETAUSDT</t>
+          <t>OMGUSDT</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3.65500000</t>
+          <t>5.05400000</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3.723</v>
+        <v>5.632</v>
       </c>
       <c r="D20" s="11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
-        <v>3.723</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>XTZUSDT</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>4.45700000</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>4.606</v>
-      </c>
-      <c r="D21" s="11" t="n">
-        <v>3</v>
-      </c>
-      <c r="F21" t="n">
-        <v>4.606</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>SUNUSDT</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.01703000</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>0.01795</v>
-      </c>
-      <c r="D22" s="11" t="n">
-        <v>5</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.01795</v>
-      </c>
-      <c r="H22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>OOKIUSDT</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.02077000</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>0.0264</v>
-      </c>
-      <c r="D23" t="n">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>OMGUSDT</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>5.40700000</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>5.632</v>
-      </c>
-      <c r="D24" s="11" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" t="n">
         <v>5.632</v>
       </c>
     </row>
@@ -2712,18 +2635,19 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11.140625" customWidth="1" min="1" max="1"/>
-    <col width="14.42578125" customWidth="1" min="2" max="2"/>
-    <col width="16.140625" customWidth="1" min="3" max="3"/>
-    <col width="18.7109375" customWidth="1" min="4" max="4"/>
+    <col width="18.28515625" customWidth="1" min="2" max="2"/>
+    <col width="18.7109375" customWidth="1" min="3" max="3"/>
+    <col width="28.28515625" customWidth="1" min="4" max="4"/>
+    <col width="18.7109375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2744,6 +2668,11 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Profit %</t>
         </is>
       </c>
@@ -2751,121 +2680,323 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ETHUSDT</t>
+          <t>BCHUSDT</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3243.83000000</t>
-        </is>
+          <t>337.10000000</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>356</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2022-02-10T11:22:02.069Z</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>-5.308988764044938</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BTCUSDT</t>
+          <t>PYRUSDT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>44589.99000000</t>
-        </is>
+          <t>13.55000000</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2022-02-07T03:17:06.900Z</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>-11.43790849673203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AVAXUSDT</t>
+          <t>ETHUSDT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>90.23000000</t>
-        </is>
+          <t>3073.95000000</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3233</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2022-02-09T19:08:08.061Z</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>-4.919579338076096</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ONTUSDT</t>
+          <t>BTCUSDT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.61240000</t>
-        </is>
+          <t>43327.10000000</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>43506.52</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2022-02-07T15:34:34.472Z</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.4123979578233292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DOGEUSDT</t>
+          <t>THETAUSDT</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.15890000</t>
-        </is>
+          <t>4.14000000</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3.723</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2022-02-10T11:54:13.279Z</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>11.20064464141821</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ANTUSDT</t>
+          <t>TRXUSDT</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7.69200000</t>
-        </is>
+          <t>0.06830000</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.07025000000000001</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022-02-10T07:50:23.202Z</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>-2.775800711743782</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>QNTUSDT</t>
+          <t>AVAXUSDT</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>149.90000000</t>
-        </is>
+          <t>91.49000000</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>87.75</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2022-02-08T04:00:23.830Z</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>4.262108262108256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SANDUSDT</t>
+          <t>ETCUSDT</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4.71440000</t>
-        </is>
+          <t>34.26000000</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>34.25</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2022-02-09T13:36:52.510Z</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.02919708029196499</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>TRXUSDT</t>
+          <t>DOGEUSDT</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.07088000</t>
-        </is>
+          <t>0.15130000</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1696</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2022-02-07T20:03:41.907Z</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>-10.79009433962265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PYRUSDT</t>
+          <t>ANTUSDT</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14.89000000</t>
-        </is>
+          <t>6.65100000</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>8.855</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2022-02-06T00:02:13.207Z</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>-24.88989271597968</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ONTUSDT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0.58120000</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.6163999999999999</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2022-02-10T08:02:50.367Z</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>-5.710577547047356</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>SANDUSDT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4.48660000</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4.6416</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2022-02-06T01:01:28.814Z</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>-3.339365735953125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>QNTUSDT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>142.90000000</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>152.8</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2022-02-07T08:44:24.839Z</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>-6.47905759162304</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>SUNUSDT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.01701000</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.01801</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2022-02-10T15:16:47.070Z</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>-5.552470849528044</v>
       </c>
     </row>
   </sheetData>
